--- a/Cleaned HA Dataset.xlsx
+++ b/Cleaned HA Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27031"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C628527-0B27-44A1-98C8-88EAA0F2AE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAFB207-91DE-43F3-AD22-F2763C8B35C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{416E08D8-3F77-4AE2-BA22-190439D29092}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{416E08D8-3F77-4AE2-BA22-190439D29092}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Estimates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="102">
   <si>
     <t>Index</t>
   </si>
@@ -258,7 +258,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t xml:space="preserve"> Overdoses if Male Rate</t>
+    <t>Total Overdose Deaths Rate</t>
   </si>
   <si>
     <t>Any Opioid Overdose Rate</t>
@@ -267,136 +267,13 @@
     <t>Prescription Opioid Overdose Rate</t>
   </si>
   <si>
-    <t>Prescription if Male Rate</t>
+    <t> Prescription Opioids AND Synthetic Opioids other than Methadone Overdose Rate</t>
   </si>
   <si>
-    <t>Prescription if Female Rate</t>
+    <t> Prescription Opioids WITHOUT Synthetic Opioids other than Methadone Overdose Rate</t>
   </si>
   <si>
-    <t>Any Opioid Male Rate</t>
-  </si>
-  <si>
-    <t>Any Opioid Female Rate</t>
-  </si>
-  <si>
-    <t>Overdoses if Female Rate</t>
-  </si>
-  <si>
-    <t>Total Overdose Deaths Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prescription Opioids AND Synthetic Opioids other than Methadone Overdose Rate</t>
-  </si>
-  <si>
-    <t>Perscription and Sythentic Female Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Perscription and Sythentic Male Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prescription Opioids WITHOUT Synthetic Opioids other than Methadone Overdose Rate</t>
-  </si>
-  <si>
-    <t>Prescription without Synthetic Female Rate</t>
-  </si>
-  <si>
-    <t>Prescription without Synthetic Male Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Synthetic Opioids other than Methadone (primarily fentanyl) Overdose Rate</t>
-  </si>
-  <si>
-    <t>Synthetic Mainly Fentanyl Female Rate</t>
-  </si>
-  <si>
-    <t>Total Overdose Deaths (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Female Overdoses (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Male Overdoses (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Any Opioid Overdose (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Synthetic Opioids other than Methadone (primarily fentanyl) Overdoses (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids AND Synthetic Opioids other than Methadone (primarily fentanyl) Overdoses (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Any Opioid Overdose Female (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids Overdoses (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids Overdoses Female (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids Overdoses Male (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids AND Synthetic Overdoses Female (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids AND Synthetic Overdoses Male (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Synthetic Opioids Mainly Fentanyl Overdoses Female (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Synthetic Opioids Mainly Fentanyl Overdoses Male (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Total Overdose Deaths Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Female Overdose Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Male Overdose Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Any Opioid Overdose Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Any Opioid Overdose Female Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Any Opioid Overdose Male (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Any Opioid Overdose Male Rate(Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids Overdose Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids Overdose Female Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids Overdose Male Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids AND Synthetic Opioids other than Methadone (primarily fentanyl) Overdose Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids AND Synthetic Overdose Rate Female (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prescription Opioids AND Synthetic Overdose Rate Male (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Synthetic Opioids other than Methadone (primarily fentanyl) Overdose Rate (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Synthetic Opioids Mainly Fentanyl Overdose Rate Female (Ages 15-24)</t>
-  </si>
-  <si>
-    <t>Synthetic Opioids Mainly Fentanyl Overdose Rate Male (Ages 15-24)</t>
+    <t> Synthetic Opioids other than Methadone (primarily fentanyl) Overdose Rate</t>
   </si>
   <si>
     <t>White (Non-Hispanic) Overdose Rate</t>
@@ -408,7 +285,7 @@
     <t>Asian* (Non-Hispanic) Overdose Rate</t>
   </si>
   <si>
-    <t xml:space="preserve"> Native Hawaiin or Other Pacific Islander* (Non-Hispanic) Overdose Rate</t>
+    <t> Native Hawaiin or Other Pacific Islander* (Non-Hispanic) Overdose Rate</t>
   </si>
   <si>
     <t>Hispanic Overdose Rate</t>
@@ -470,42 +347,6 @@
   <si>
     <t>American Indian or Alaska Native (Non-Hispanic) Synthetic Overdose Rate</t>
   </si>
-  <si>
-    <t xml:space="preserve">White (Non-Hispanic) Female Overdose Rate </t>
-  </si>
-  <si>
-    <t>White (Non-Hispanic) Male Overdose Rate</t>
-  </si>
-  <si>
-    <t>Black (Non-Hispanic) Female Overdose Rate</t>
-  </si>
-  <si>
-    <t>Black (Non-Hispanic)Male Overdose Rate</t>
-  </si>
-  <si>
-    <t>Asian* (Non-Hispanic) Female Overdose Rate</t>
-  </si>
-  <si>
-    <t>Asian* (Non-Hispanic) Male Overdose Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Native Hawaiin or Other Pacific Islander* (Non-Hispanic) Female Overdose Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Native Hawaiin or Other Pacific Islander* (Non-Hispanic) Male Overdose Rate</t>
-  </si>
-  <si>
-    <t>Hispanic Female Overdose Rate</t>
-  </si>
-  <si>
-    <t>Hispanic Male Overdose Rate</t>
-  </si>
-  <si>
-    <t>American Indian or Alaska Native (Non-Hispanic)  Female Overdose Rate</t>
-  </si>
-  <si>
-    <t>American Indian or Alaska Native (Non-Hispanic) Male Overdose Rate</t>
-  </si>
 </sst>
 </file>
 
@@ -514,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1055,7 +896,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1068,8 +909,7 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -1430,28 +1270,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834AC7E6-D48B-42A4-A015-BD8E5B98AFAA}">
   <dimension ref="A1:AC476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="O427" sqref="O427"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-    <col min="10" max="13" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
-    <col min="16" max="19" width="9.109375" customWidth="1"/>
-    <col min="20" max="20" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.88671875" customWidth="1"/>
-    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="19" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="14.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1513,7 +1353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="15.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1576,7 +1416,7 @@
         <v>139617469</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="15.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1639,7 +1479,7 @@
       </c>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1701,7 +1541,7 @@
         <v>260489</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" ht="15.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1763,7 +1603,7 @@
         <v>2999646</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" ht="15.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1825,7 +1665,7 @@
         <v>2359319</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1887,7 +1727,7 @@
         <v>10897692</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" ht="15.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1953,7 +1793,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" ht="15.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2019,7 +1859,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" ht="15.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2085,7 +1925,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2151,7 +1991,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" ht="15.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2217,7 +2057,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2279,7 +2119,7 @@
         <v>5856573</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" ht="15.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2341,7 +2181,7 @@
         <v>375052</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" ht="15.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2403,7 +2243,7 @@
         <v>995847</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" ht="15.6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2467,7 +2307,7 @@
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" ht="15.6">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2531,7 +2371,7 @@
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="15.6">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2595,7 +2435,7 @@
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" ht="15.6">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2659,7 +2499,7 @@
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" ht="15.6">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2723,7 +2563,7 @@
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="15.6">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2785,7 +2625,7 @@
         <v>3090750</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" ht="15.6">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2847,7 +2687,7 @@
         <v>525231</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" ht="15.6">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2909,7 +2749,7 @@
         <v>2315431</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" ht="15.6">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2971,7 +2811,7 @@
         <v>2171001</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" ht="15.6">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3033,7 +2873,7 @@
         <v>5147051</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="15.6">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3095,7 +2935,7 @@
         <v>1574783</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" ht="15.6">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3164,7 +3004,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" ht="15.6">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3233,7 +3073,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" ht="15.6">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3302,7 +3142,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" ht="15.6">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3371,7 +3211,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" ht="15.6">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3440,7 +3280,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" ht="15.6">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3509,7 +3349,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" ht="15.6">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3578,7 +3418,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" ht="15.6">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3642,7 +3482,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="15.6">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3711,7 +3551,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" ht="15.6">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3775,7 +3615,7 @@
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
-    <row r="37" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="15.6">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3837,7 +3677,7 @@
         <v>272216</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" ht="15.6">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3899,7 +3739,7 @@
         <v>5187393</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" ht="15.6">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3968,7 +3808,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="15.6">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4037,7 +3877,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="15.6">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4106,7 +3946,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" ht="15.6">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4175,7 +4015,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="15.6">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4244,7 +4084,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="15.6">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4306,7 +4146,7 @@
         <v>363917</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="15.6">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4375,7 +4215,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" ht="15.6">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4437,7 +4277,7 @@
         <v>11107046</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="15.6">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4499,7 +4339,7 @@
         <v>1662583</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="15.6">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4568,7 +4408,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="15.6">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4637,7 +4477,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="15.6">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4706,7 +4546,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="15.6">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4775,7 +4615,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="15.6">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4844,7 +4684,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="15.6">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4906,7 +4746,7 @@
         <v>268930</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="15.6">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4971,7 +4811,7 @@
       <c r="V54" s="1"/>
       <c r="X54" s="1"/>
     </row>
-    <row r="55" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="15.6">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5041,7 +4881,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="15.6">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5105,7 +4945,7 @@
       </c>
       <c r="V56" s="1"/>
     </row>
-    <row r="57" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="15.6">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5175,7 +5015,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="15.6">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5245,7 +5085,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="15.6">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5315,7 +5155,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="15.6">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5385,7 +5225,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="15.6">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5455,7 +5295,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="15.6">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5518,7 +5358,7 @@
         <v>451175</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="15.6">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5588,7 +5428,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="15.6">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5658,7 +5498,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" ht="15.6">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5728,7 +5568,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" ht="15.6">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5798,7 +5638,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" ht="15.6">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5868,7 +5708,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" ht="15.6">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5938,7 +5778,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" ht="15.6">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6001,7 +5841,7 @@
         <v>3835933</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" ht="15.6">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6071,7 +5911,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" ht="15.6">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6134,7 +5974,7 @@
         <v>1714048</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" ht="15.6">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6197,7 +6037,7 @@
         <v>3118280</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" ht="15.6">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6260,7 +6100,7 @@
         <v>3155721</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" ht="15.6">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6323,7 +6163,7 @@
         <v>546187</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" ht="15.6">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6393,7 +6233,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" ht="15.6">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6463,7 +6303,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" ht="15.6">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6533,7 +6373,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" ht="15.6">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6603,7 +6443,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" ht="15.6">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6673,7 +6513,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" ht="15.6">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6736,7 +6576,7 @@
         <v>3328635</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" ht="15.6">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6806,7 +6646,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" ht="15.6">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6869,7 +6709,7 @@
         <v>877738</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" ht="15.6">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6939,7 +6779,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" ht="15.6">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7009,7 +6849,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" ht="15.6">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7079,7 +6919,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" ht="15.6">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7149,7 +6989,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" ht="15.6">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7219,7 +7059,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" ht="15.6">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7282,7 +7122,7 @@
         <v>5706057</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" ht="15.6">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7352,7 +7192,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" ht="15.6">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7415,7 +7255,7 @@
         <v>5327882</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" ht="15.6">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7478,7 +7318,7 @@
         <v>2393880</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" ht="15.6">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7541,7 +7381,7 @@
         <v>2071780</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" ht="15.6">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7611,7 +7451,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" ht="15.6">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7681,7 +7521,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" ht="15.6">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7751,7 +7591,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" ht="15.6">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7821,7 +7661,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" ht="15.6">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7891,7 +7731,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" ht="15.6">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7954,7 +7794,7 @@
         <v>11726836</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" ht="15.6">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8024,7 +7864,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" ht="15.6">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8087,7 +7927,7 @@
         <v>223501</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" ht="15.6">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8150,7 +7990,7 @@
         <v>3239061</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" ht="15.6">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8213,7 +8053,7 @@
         <v>3125722</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" ht="15.6">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8283,7 +8123,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" ht="15.6">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8353,7 +8193,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" ht="15.6">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8423,7 +8263,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" ht="15.6">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8493,7 +8333,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" ht="15.6">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8562,7 +8402,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" ht="15.6">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8624,7 +8464,7 @@
         <v>282296</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" ht="15.6">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8693,7 +8533,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" ht="15.6">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8755,7 +8595,7 @@
         <v>2511058</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" ht="15.6">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8817,7 +8657,7 @@
         <v>12456258</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" ht="15.6">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8886,7 +8726,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" ht="15.6">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8955,7 +8795,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" ht="15.6">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9024,7 +8864,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" ht="15.6">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9093,7 +8933,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" ht="15.6">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9162,7 +9002,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" ht="15.6">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9224,7 +9064,7 @@
         <v>6357543</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" ht="15.6">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9293,7 +9133,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" ht="15.6">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9355,7 +9195,7 @@
         <v>1065720</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" ht="15.6">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9424,7 +9264,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" ht="15.6">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9493,7 +9333,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" ht="15.6">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9562,7 +9402,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" ht="15.6">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9631,7 +9471,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" ht="15.6">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9700,7 +9540,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" ht="15.6">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9762,7 +9602,7 @@
         <v>3458208</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" ht="15.6">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9831,7 +9671,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" ht="15.6">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9900,7 +9740,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" ht="15.6">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9969,7 +9809,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" ht="15.6">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10038,7 +9878,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" ht="15.6">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10107,7 +9947,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" ht="15.6">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10169,7 +10009,7 @@
         <v>1927844</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" ht="15.6">
       <c r="A132">
         <v>131</v>
       </c>
@@ -10238,7 +10078,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" ht="15.6">
       <c r="A133">
         <v>132</v>
       </c>
@@ -10300,7 +10140,7 @@
         <v>562623</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" ht="15.6">
       <c r="A134">
         <v>133</v>
       </c>
@@ -10369,7 +10209,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" ht="15.6">
       <c r="A135">
         <v>134</v>
       </c>
@@ -10438,7 +10278,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" ht="15.6">
       <c r="A136">
         <v>135</v>
       </c>
@@ -10507,7 +10347,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" ht="15.6">
       <c r="A137">
         <v>136</v>
       </c>
@@ -10576,7 +10416,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" ht="15.6">
       <c r="A138">
         <v>137</v>
       </c>
@@ -10645,7 +10485,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" ht="15.6">
       <c r="A139">
         <v>138</v>
       </c>
@@ -10709,7 +10549,7 @@
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
     </row>
-    <row r="140" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" ht="15.6">
       <c r="A140">
         <v>139</v>
       </c>
@@ -10778,7 +10618,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" ht="15.6">
       <c r="A141">
         <v>140</v>
       </c>
@@ -10840,7 +10680,7 @@
         <v>291775</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" ht="15.6">
       <c r="A142">
         <v>141</v>
       </c>
@@ -10902,7 +10742,7 @@
         <v>5712841</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" ht="15.6">
       <c r="A143">
         <v>142</v>
       </c>
@@ -10964,7 +10804,7 @@
         <v>2635684</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" ht="15.6">
       <c r="A144">
         <v>143</v>
       </c>
@@ -11027,7 +10867,7 @@
       </c>
       <c r="X144" s="1"/>
     </row>
-    <row r="145" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" ht="15.6">
       <c r="A145">
         <v>144</v>
       </c>
@@ -11091,7 +10931,7 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
     </row>
-    <row r="146" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" ht="15.6">
       <c r="A146">
         <v>145</v>
       </c>
@@ -11160,7 +11000,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" ht="15.6">
       <c r="A147">
         <v>146</v>
       </c>
@@ -11229,7 +11069,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" ht="15.6">
       <c r="A148">
         <v>147</v>
       </c>
@@ -11298,7 +11138,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" ht="15.6">
       <c r="A149">
         <v>148</v>
       </c>
@@ -11367,7 +11207,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" ht="15.6">
       <c r="A150">
         <v>149</v>
       </c>
@@ -11436,7 +11276,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" ht="15.6">
       <c r="A151">
         <v>150</v>
       </c>
@@ -11498,7 +11338,7 @@
         <v>1734084</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" ht="15.6">
       <c r="A152">
         <v>151</v>
       </c>
@@ -11567,7 +11407,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" ht="15.6">
       <c r="A153">
         <v>152</v>
       </c>
@@ -11636,7 +11476,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" ht="15.6">
       <c r="A154">
         <v>153</v>
       </c>
@@ -11705,7 +11545,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" ht="15.6">
       <c r="A155">
         <v>154</v>
       </c>
@@ -11774,7 +11614,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" ht="15.6">
       <c r="A156">
         <v>155</v>
       </c>
@@ -11843,7 +11683,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" ht="15.6">
       <c r="A157">
         <v>156</v>
       </c>
@@ -11912,7 +11752,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" ht="15.6">
       <c r="A158">
         <v>157</v>
       </c>
@@ -11976,7 +11816,7 @@
       </c>
       <c r="X158" s="1"/>
     </row>
-    <row r="159" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" ht="15.6">
       <c r="A159">
         <v>158</v>
       </c>
@@ -12045,7 +11885,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" ht="15.6">
       <c r="A160">
         <v>159</v>
       </c>
@@ -12107,7 +11947,7 @@
         <v>336944</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" ht="15.6">
       <c r="A161">
         <v>160</v>
       </c>
@@ -12171,7 +12011,7 @@
       <c r="V161" s="1"/>
       <c r="W161" s="1"/>
     </row>
-    <row r="162" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" ht="15.6">
       <c r="A162">
         <v>161</v>
       </c>
@@ -12237,7 +12077,7 @@
       <c r="X162" s="1"/>
       <c r="Y162" s="1"/>
     </row>
-    <row r="163" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" ht="15.6">
       <c r="A163">
         <v>162</v>
       </c>
@@ -12301,7 +12141,7 @@
       <c r="V163" s="1"/>
       <c r="W163" s="1"/>
     </row>
-    <row r="164" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" ht="15.6">
       <c r="A164">
         <v>163</v>
       </c>
@@ -12370,7 +12210,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" ht="15.6">
       <c r="A165">
         <v>164</v>
       </c>
@@ -12439,7 +12279,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" ht="15.6">
       <c r="A166">
         <v>165</v>
       </c>
@@ -12508,7 +12348,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" ht="15.6">
       <c r="A167">
         <v>166</v>
       </c>
@@ -12577,7 +12417,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" ht="15.6">
       <c r="A168">
         <v>167</v>
       </c>
@@ -12646,7 +12486,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" ht="15.6">
       <c r="A169">
         <v>168</v>
       </c>
@@ -12708,7 +12548,7 @@
         <v>6765522</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" ht="15.6">
       <c r="A170">
         <v>169</v>
       </c>
@@ -12777,7 +12617,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" ht="15.6">
       <c r="A171">
         <v>170</v>
       </c>
@@ -12841,7 +12681,7 @@
       <c r="V171" s="1"/>
       <c r="W171" s="1"/>
     </row>
-    <row r="172" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" ht="15.6">
       <c r="A172">
         <v>171</v>
       </c>
@@ -12910,7 +12750,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" ht="15.6">
       <c r="A173">
         <v>172</v>
       </c>
@@ -12979,7 +12819,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" ht="15.6">
       <c r="A174">
         <v>173</v>
       </c>
@@ -13048,7 +12888,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" ht="15.6">
       <c r="A175">
         <v>174</v>
       </c>
@@ -13117,7 +12957,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
-    <row r="176" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" ht="15.6">
       <c r="A176">
         <v>175</v>
       </c>
@@ -13186,7 +13026,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" ht="15.6">
       <c r="A177">
         <v>176</v>
       </c>
@@ -13248,7 +13088,7 @@
         <v>3784308</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" ht="15.6">
       <c r="A178">
         <v>177</v>
       </c>
@@ -13317,7 +13157,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" ht="15.6">
       <c r="A179">
         <v>178</v>
       </c>
@@ -13379,7 +13219,7 @@
         <v>2769370</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" ht="15.6">
       <c r="A180">
         <v>179</v>
       </c>
@@ -13443,7 +13283,7 @@
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
     </row>
-    <row r="181" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" ht="15.6">
       <c r="A181">
         <v>180</v>
       </c>
@@ -13512,7 +13352,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" ht="15.6">
       <c r="A182">
         <v>181</v>
       </c>
@@ -13581,7 +13421,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" ht="15.6">
       <c r="A183">
         <v>182</v>
       </c>
@@ -13650,7 +13490,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" ht="15.6">
       <c r="A184">
         <v>183</v>
       </c>
@@ -13719,7 +13559,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" ht="15.6">
       <c r="A185">
         <v>184</v>
       </c>
@@ -13788,7 +13628,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" ht="15.6">
       <c r="A186">
         <v>185</v>
       </c>
@@ -13850,7 +13690,7 @@
         <v>1015554</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" ht="15.6">
       <c r="A187">
         <v>186</v>
       </c>
@@ -13919,7 +13759,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
     </row>
-    <row r="188" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" ht="15.6">
       <c r="A188">
         <v>187</v>
       </c>
@@ -13983,7 +13823,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" ht="15.6">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14049,7 +13889,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" ht="15.6">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14118,7 +13958,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" ht="15.6">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14187,7 +14027,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" ht="15.6">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14256,7 +14096,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
     </row>
-    <row r="193" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" ht="15.6">
       <c r="A193">
         <v>192</v>
       </c>
@@ -14325,7 +14165,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" ht="15.6">
       <c r="A194">
         <v>193</v>
       </c>
@@ -14394,7 +14234,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" ht="15.6">
       <c r="A195">
         <v>194</v>
       </c>
@@ -14456,7 +14296,7 @@
         <v>3118775</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" ht="15.6">
       <c r="A196">
         <v>195</v>
       </c>
@@ -14525,7 +14365,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" ht="15.6">
       <c r="A197">
         <v>196</v>
       </c>
@@ -14587,7 +14427,7 @@
         <v>6382073</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" ht="15.6">
       <c r="A198">
         <v>197</v>
       </c>
@@ -14649,7 +14489,7 @@
         <v>434041</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" ht="15.6">
       <c r="A199">
         <v>198</v>
       </c>
@@ -14718,7 +14558,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" ht="15.6">
       <c r="A200">
         <v>199</v>
       </c>
@@ -14787,7 +14627,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" ht="15.6">
       <c r="A201">
         <v>200</v>
       </c>
@@ -14856,7 +14696,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" ht="15.6">
       <c r="A202">
         <v>201</v>
       </c>
@@ -14925,7 +14765,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" ht="15.6">
       <c r="A203">
         <v>202</v>
       </c>
@@ -14994,7 +14834,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" ht="15.6">
       <c r="A204">
         <v>203</v>
       </c>
@@ -15056,7 +14896,7 @@
         <v>262360</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" ht="15.6">
       <c r="A205">
         <v>204</v>
       </c>
@@ -15125,7 +14965,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" ht="15.6">
       <c r="A206">
         <v>205</v>
       </c>
@@ -15187,7 +15027,7 @@
         <v>3743745</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" ht="15.6">
       <c r="A207">
         <v>206</v>
       </c>
@@ -15251,7 +15091,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" ht="15.6">
       <c r="A208">
         <v>207</v>
       </c>
@@ -15320,7 +15160,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
     </row>
-    <row r="209" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" ht="15.6">
       <c r="A209">
         <v>208</v>
       </c>
@@ -15389,7 +15229,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
     </row>
-    <row r="210" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" ht="15.6">
       <c r="A210">
         <v>209</v>
       </c>
@@ -15459,7 +15299,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
     </row>
-    <row r="211" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" ht="15.6">
       <c r="A211">
         <v>210</v>
       </c>
@@ -15528,7 +15368,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" ht="15.6">
       <c r="A212">
         <v>211</v>
       </c>
@@ -15597,7 +15437,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" ht="15.6">
       <c r="A213">
         <v>212</v>
       </c>
@@ -15659,7 +15499,7 @@
         <v>4284865</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" ht="15.6">
       <c r="A214">
         <v>213</v>
       </c>
@@ -15728,7 +15568,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" ht="15.6">
       <c r="A215">
         <v>214</v>
       </c>
@@ -15792,7 +15632,7 @@
       <c r="V215" s="1"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" ht="15.6">
       <c r="A216">
         <v>215</v>
       </c>
@@ -15856,7 +15696,7 @@
       <c r="V216" s="1"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" ht="15.6">
       <c r="A217">
         <v>216</v>
       </c>
@@ -15922,7 +15762,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" ht="15.6">
       <c r="A218">
         <v>217</v>
       </c>
@@ -15991,7 +15831,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
     </row>
-    <row r="219" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" ht="15.6">
       <c r="A219">
         <v>218</v>
       </c>
@@ -16060,7 +15900,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
     </row>
-    <row r="220" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" ht="15.6">
       <c r="A220">
         <v>219</v>
       </c>
@@ -16129,7 +15969,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
     </row>
-    <row r="221" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" ht="15.6">
       <c r="A221">
         <v>220</v>
       </c>
@@ -16198,7 +16038,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
     </row>
-    <row r="222" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" ht="15.6">
       <c r="A222">
         <v>221</v>
       </c>
@@ -16267,7 +16107,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
     </row>
-    <row r="223" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" ht="15.6">
       <c r="A223">
         <v>222</v>
       </c>
@@ -16329,7 +16169,7 @@
         <v>1266182</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" ht="15.6">
       <c r="A224">
         <v>223</v>
       </c>
@@ -16398,7 +16238,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" ht="15.6">
       <c r="A225">
         <v>224</v>
       </c>
@@ -16462,7 +16302,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" ht="15.6">
       <c r="A226">
         <v>225</v>
       </c>
@@ -16526,7 +16366,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" ht="15.6">
       <c r="A227">
         <v>226</v>
       </c>
@@ -16595,7 +16435,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" ht="15.6">
       <c r="A228">
         <v>227</v>
       </c>
@@ -16664,7 +16504,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" ht="15.6">
       <c r="A229">
         <v>228</v>
       </c>
@@ -16733,7 +16573,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" ht="15.6">
       <c r="A230">
         <v>229</v>
       </c>
@@ -16802,7 +16642,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" ht="15.6">
       <c r="A231">
         <v>230</v>
       </c>
@@ -16871,7 +16711,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" ht="15.6">
       <c r="A232">
         <v>231</v>
       </c>
@@ -16935,7 +16775,7 @@
       <c r="W232" s="1"/>
       <c r="X232" s="1"/>
     </row>
-    <row r="233" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" ht="15.6">
       <c r="A233">
         <v>232</v>
       </c>
@@ -17001,7 +16841,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" ht="15.6">
       <c r="A234">
         <v>233</v>
       </c>
@@ -17070,7 +16910,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
     </row>
-    <row r="235" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" ht="15.6">
       <c r="A235">
         <v>234</v>
       </c>
@@ -17134,7 +16974,7 @@
       <c r="W235" s="1"/>
       <c r="X235" s="1"/>
     </row>
-    <row r="236" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" ht="15.6">
       <c r="A236">
         <v>235</v>
       </c>
@@ -17203,7 +17043,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" ht="15.6">
       <c r="A237">
         <v>236</v>
       </c>
@@ -17272,7 +17112,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" ht="15.6">
       <c r="A238">
         <v>237</v>
       </c>
@@ -17341,7 +17181,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" ht="15.6">
       <c r="A239">
         <v>238</v>
       </c>
@@ -17410,7 +17250,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" ht="15.6">
       <c r="A240">
         <v>239</v>
       </c>
@@ -17479,7 +17319,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" ht="15.6">
       <c r="A241">
         <v>240</v>
       </c>
@@ -17541,7 +17381,7 @@
         <v>3918084</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" ht="15.6">
       <c r="A242">
         <v>241</v>
       </c>
@@ -17610,7 +17450,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" ht="15.6">
       <c r="A243">
         <v>242</v>
       </c>
@@ -17674,7 +17514,7 @@
       <c r="W243" s="1"/>
       <c r="X243" s="1"/>
     </row>
-    <row r="244" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" ht="15.6">
       <c r="A244">
         <v>243</v>
       </c>
@@ -17743,7 +17583,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" ht="15.6">
       <c r="A245">
         <v>244</v>
       </c>
@@ -17812,7 +17652,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" ht="15.6">
       <c r="A246">
         <v>245</v>
       </c>
@@ -17881,7 +17721,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" ht="15.6">
       <c r="A247">
         <v>246</v>
       </c>
@@ -17950,7 +17790,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" ht="15.6">
       <c r="A248">
         <v>247</v>
       </c>
@@ -18019,7 +17859,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" ht="15.6">
       <c r="A249">
         <v>248</v>
       </c>
@@ -18081,7 +17921,7 @@
         <v>7390706</v>
       </c>
     </row>
-    <row r="250" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" ht="15.6">
       <c r="A250">
         <v>249</v>
       </c>
@@ -18150,7 +17990,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" ht="15.6">
       <c r="A251">
         <v>250</v>
       </c>
@@ -18214,7 +18054,7 @@
       <c r="W251" s="1"/>
       <c r="X251" s="1"/>
     </row>
-    <row r="252" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" ht="15.6">
       <c r="A252">
         <v>251</v>
       </c>
@@ -18280,7 +18120,7 @@
       <c r="Y252" s="1"/>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" ht="15.6">
       <c r="A253">
         <v>252</v>
       </c>
@@ -18349,7 +18189,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" ht="15.6">
       <c r="A254">
         <v>253</v>
       </c>
@@ -18418,7 +18258,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" ht="15.6">
       <c r="A255">
         <v>254</v>
       </c>
@@ -18487,7 +18327,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" ht="15.6">
       <c r="A256">
         <v>255</v>
       </c>
@@ -18556,7 +18396,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" ht="15.6">
       <c r="A257">
         <v>256</v>
       </c>
@@ -18625,7 +18465,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" ht="15.6">
       <c r="A258">
         <v>257</v>
       </c>
@@ -18687,7 +18527,7 @@
         <v>4290154</v>
       </c>
     </row>
-    <row r="259" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" ht="15.6">
       <c r="A259">
         <v>258</v>
       </c>
@@ -18756,7 +18596,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" ht="15.6">
       <c r="A260">
         <v>259</v>
       </c>
@@ -18818,7 +18658,7 @@
         <v>2979890</v>
       </c>
     </row>
-    <row r="261" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" ht="15.6">
       <c r="A261">
         <v>260</v>
       </c>
@@ -18882,7 +18722,7 @@
       <c r="W261" s="1"/>
       <c r="X261" s="1"/>
     </row>
-    <row r="262" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" ht="15.6">
       <c r="A262">
         <v>261</v>
       </c>
@@ -18954,7 +18794,7 @@
       <c r="AB262" s="1"/>
       <c r="AC262" s="1"/>
     </row>
-    <row r="263" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" ht="15.6">
       <c r="A263">
         <v>262</v>
       </c>
@@ -19023,7 +18863,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" ht="15.6">
       <c r="A264">
         <v>263</v>
       </c>
@@ -19092,7 +18932,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" ht="15.6">
       <c r="A265">
         <v>264</v>
       </c>
@@ -19161,7 +19001,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" ht="15.6">
       <c r="A266">
         <v>265</v>
       </c>
@@ -19230,7 +19070,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" ht="15.6">
       <c r="A267">
         <v>266</v>
       </c>
@@ -19294,7 +19134,7 @@
       <c r="Y267" s="1"/>
       <c r="Z267" s="1"/>
     </row>
-    <row r="268" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" ht="15.6">
       <c r="A268">
         <v>267</v>
       </c>
@@ -19363,7 +19203,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" ht="15.6">
       <c r="A269">
         <v>268</v>
       </c>
@@ -19427,7 +19267,7 @@
       <c r="Y269" s="1"/>
       <c r="Z269" s="1"/>
     </row>
-    <row r="270" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" ht="15.6">
       <c r="A270">
         <v>269</v>
       </c>
@@ -19491,7 +19331,7 @@
       <c r="Y270" s="1"/>
       <c r="Z270" s="1"/>
     </row>
-    <row r="271" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" ht="15.6">
       <c r="A271">
         <v>270</v>
       </c>
@@ -19555,7 +19395,7 @@
       <c r="Y271" s="1"/>
       <c r="Z271" s="1"/>
     </row>
-    <row r="272" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29" ht="15.6">
       <c r="A272">
         <v>271</v>
       </c>
@@ -19617,7 +19457,7 @@
         <v>14297281</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" ht="15.6">
       <c r="A273">
         <v>272</v>
       </c>
@@ -19686,7 +19526,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" ht="15.6">
       <c r="A274">
         <v>273</v>
       </c>
@@ -19755,7 +19595,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" ht="15.6">
       <c r="A275">
         <v>274</v>
       </c>
@@ -19824,7 +19664,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" ht="15.6">
       <c r="A276">
         <v>275</v>
       </c>
@@ -19893,7 +19733,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" ht="15.6">
       <c r="A277">
         <v>276</v>
       </c>
@@ -19962,7 +19802,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" ht="15.6">
       <c r="A278">
         <v>277</v>
       </c>
@@ -20026,7 +19866,7 @@
       <c r="X278" s="1"/>
       <c r="Y278" s="1"/>
     </row>
-    <row r="279" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" ht="15.6">
       <c r="A279">
         <v>278</v>
       </c>
@@ -20095,7 +19935,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" ht="15.6">
       <c r="A280">
         <v>279</v>
       </c>
@@ -20161,7 +20001,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" ht="15.6">
       <c r="A281">
         <v>280</v>
       </c>
@@ -20225,7 +20065,7 @@
       <c r="X281" s="1"/>
       <c r="Y281" s="1"/>
     </row>
-    <row r="282" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" ht="15.6">
       <c r="A282">
         <v>281</v>
       </c>
@@ -20294,7 +20134,7 @@
       <c r="Z282" s="1"/>
       <c r="AA282" s="1"/>
     </row>
-    <row r="283" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" ht="15.6">
       <c r="A283">
         <v>282</v>
       </c>
@@ -20363,7 +20203,7 @@
       <c r="Z283" s="1"/>
       <c r="AA283" s="1"/>
     </row>
-    <row r="284" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" ht="15.6">
       <c r="A284">
         <v>283</v>
       </c>
@@ -20432,7 +20272,7 @@
       <c r="Z284" s="1"/>
       <c r="AA284" s="1"/>
     </row>
-    <row r="285" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" ht="15.6">
       <c r="A285">
         <v>284</v>
       </c>
@@ -20501,7 +20341,7 @@
       <c r="Z285" s="1"/>
       <c r="AA285" s="1"/>
     </row>
-    <row r="286" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" ht="15.6">
       <c r="A286">
         <v>285</v>
       </c>
@@ -20570,7 +20410,7 @@
       <c r="Z286" s="1"/>
       <c r="AA286" s="1"/>
     </row>
-    <row r="287" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" ht="15.6">
       <c r="A287">
         <v>286</v>
       </c>
@@ -20632,7 +20472,7 @@
         <v>2977050</v>
       </c>
     </row>
-    <row r="288" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" ht="15.6">
       <c r="A288">
         <v>287</v>
       </c>
@@ -20701,7 +20541,7 @@
       <c r="Z288" s="1"/>
       <c r="AA288" s="1"/>
     </row>
-    <row r="289" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" ht="15.6">
       <c r="A289">
         <v>288</v>
       </c>
@@ -20767,7 +20607,7 @@
       <c r="Z289" s="1"/>
       <c r="AA289" s="1"/>
     </row>
-    <row r="290" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" ht="15.6">
       <c r="A290">
         <v>289</v>
       </c>
@@ -20836,7 +20676,7 @@
       <c r="Z290" s="1"/>
       <c r="AA290" s="1"/>
     </row>
-    <row r="291" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" ht="15.6">
       <c r="A291">
         <v>290</v>
       </c>
@@ -20905,7 +20745,7 @@
       <c r="Z291" s="1"/>
       <c r="AA291" s="1"/>
     </row>
-    <row r="292" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" ht="15.6">
       <c r="A292">
         <v>291</v>
       </c>
@@ -20974,7 +20814,7 @@
       <c r="Z292" s="1"/>
       <c r="AA292" s="1"/>
     </row>
-    <row r="293" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" ht="15.6">
       <c r="A293">
         <v>292</v>
       </c>
@@ -21043,7 +20883,7 @@
       <c r="Z293" s="1"/>
       <c r="AA293" s="1"/>
     </row>
-    <row r="294" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" ht="15.6">
       <c r="A294">
         <v>293</v>
       </c>
@@ -21112,7 +20952,7 @@
       <c r="Z294" s="1"/>
       <c r="AA294" s="1"/>
     </row>
-    <row r="295" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" ht="15.6">
       <c r="A295">
         <v>294</v>
       </c>
@@ -21174,7 +21014,7 @@
         <v>8604928</v>
       </c>
     </row>
-    <row r="296" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" ht="15.6">
       <c r="A296">
         <v>295</v>
       </c>
@@ -21243,7 +21083,7 @@
       <c r="Z296" s="1"/>
       <c r="AA296" s="1"/>
     </row>
-    <row r="297" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" ht="15.6">
       <c r="A297">
         <v>296</v>
       </c>
@@ -21307,7 +21147,7 @@
       <c r="X297" s="1"/>
       <c r="Y297" s="1"/>
     </row>
-    <row r="298" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" ht="15.6">
       <c r="A298">
         <v>297</v>
       </c>
@@ -21376,7 +21216,7 @@
       <c r="Z298" s="1"/>
       <c r="AA298" s="1"/>
     </row>
-    <row r="299" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" ht="15.6">
       <c r="A299">
         <v>298</v>
       </c>
@@ -21445,7 +21285,7 @@
       <c r="Z299" s="1"/>
       <c r="AA299" s="1"/>
     </row>
-    <row r="300" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" ht="15.6">
       <c r="A300">
         <v>299</v>
       </c>
@@ -21514,7 +21354,7 @@
       <c r="Z300" s="1"/>
       <c r="AA300" s="1"/>
     </row>
-    <row r="301" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" ht="15.6">
       <c r="A301">
         <v>300</v>
       </c>
@@ -21583,7 +21423,7 @@
       <c r="Z301" s="1"/>
       <c r="AA301" s="1"/>
     </row>
-    <row r="302" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" ht="15.6">
       <c r="A302">
         <v>301</v>
       </c>
@@ -21652,7 +21492,7 @@
       <c r="Z302" s="1"/>
       <c r="AA302" s="1"/>
     </row>
-    <row r="303" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" ht="15.6">
       <c r="A303">
         <v>302</v>
       </c>
@@ -21714,7 +21554,7 @@
         <v>4323952</v>
       </c>
     </row>
-    <row r="304" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" ht="15.6">
       <c r="A304">
         <v>303</v>
       </c>
@@ -21783,7 +21623,7 @@
       <c r="Z304" s="1"/>
       <c r="AA304" s="1"/>
     </row>
-    <row r="305" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:29" ht="15.6">
       <c r="A305">
         <v>304</v>
       </c>
@@ -21845,7 +21685,7 @@
         <v>7376491</v>
       </c>
     </row>
-    <row r="306" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:29" ht="15.6">
       <c r="A306">
         <v>305</v>
       </c>
@@ -21909,7 +21749,7 @@
       <c r="X306" s="1"/>
       <c r="Y306" s="1"/>
     </row>
-    <row r="307" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:29" ht="15.6">
       <c r="A307">
         <v>306</v>
       </c>
@@ -21978,7 +21818,7 @@
       <c r="Z307" s="1"/>
       <c r="AA307" s="1"/>
     </row>
-    <row r="308" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:29" ht="15.6">
       <c r="A308">
         <v>307</v>
       </c>
@@ -22047,7 +21887,7 @@
       <c r="Z308" s="1"/>
       <c r="AA308" s="1"/>
     </row>
-    <row r="309" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:29" ht="15.6">
       <c r="A309">
         <v>308</v>
       </c>
@@ -22116,7 +21956,7 @@
       <c r="Z309" s="1"/>
       <c r="AA309" s="1"/>
     </row>
-    <row r="310" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:29" ht="15.6">
       <c r="A310">
         <v>309</v>
       </c>
@@ -22185,7 +22025,7 @@
       <c r="Z310" s="1"/>
       <c r="AA310" s="1"/>
     </row>
-    <row r="311" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:29" ht="15.6">
       <c r="A311">
         <v>310</v>
       </c>
@@ -22253,7 +22093,7 @@
       <c r="Z311" s="1"/>
       <c r="AA311" s="1"/>
     </row>
-    <row r="312" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:29" ht="15.6">
       <c r="A312">
         <v>311</v>
       </c>
@@ -22315,7 +22155,7 @@
         <v>3590560</v>
       </c>
     </row>
-    <row r="313" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:29" ht="15.6">
       <c r="A313">
         <v>312</v>
       </c>
@@ -22384,7 +22224,7 @@
       <c r="Z313" s="1"/>
       <c r="AA313" s="1"/>
     </row>
-    <row r="314" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:29" ht="15.6">
       <c r="A314">
         <v>313</v>
       </c>
@@ -22453,7 +22293,7 @@
       <c r="AB314" s="1"/>
       <c r="AC314" s="1"/>
     </row>
-    <row r="315" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:29" ht="15.6">
       <c r="A315">
         <v>314</v>
       </c>
@@ -22519,7 +22359,7 @@
       <c r="Z315" s="1"/>
       <c r="AA315" s="1"/>
     </row>
-    <row r="316" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:29" ht="15.6">
       <c r="A316">
         <v>315</v>
       </c>
@@ -22583,7 +22423,7 @@
       <c r="X316" s="1"/>
       <c r="Y316" s="1"/>
     </row>
-    <row r="317" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:29" ht="15.6">
       <c r="A317">
         <v>316</v>
       </c>
@@ -22652,7 +22492,7 @@
       <c r="Z317" s="1"/>
       <c r="AA317" s="1"/>
     </row>
-    <row r="318" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:29" ht="15.6">
       <c r="A318">
         <v>317</v>
       </c>
@@ -22721,7 +22561,7 @@
       <c r="Z318" s="1"/>
       <c r="AA318" s="1"/>
     </row>
-    <row r="319" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:29" ht="15.6">
       <c r="A319">
         <v>318</v>
       </c>
@@ -22790,7 +22630,7 @@
       <c r="Z319" s="1"/>
       <c r="AA319" s="1"/>
     </row>
-    <row r="320" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:29" ht="15.6">
       <c r="A320">
         <v>319</v>
       </c>
@@ -22859,7 +22699,7 @@
       <c r="Z320" s="1"/>
       <c r="AA320" s="1"/>
     </row>
-    <row r="321" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" ht="15.6">
       <c r="A321">
         <v>320</v>
       </c>
@@ -22928,7 +22768,7 @@
       <c r="Z321" s="1"/>
       <c r="AA321" s="1"/>
     </row>
-    <row r="322" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" ht="15.6">
       <c r="A322">
         <v>321</v>
       </c>
@@ -22990,7 +22830,7 @@
         <v>799240</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" ht="15.6">
       <c r="A323">
         <v>322</v>
       </c>
@@ -23059,7 +22899,7 @@
       <c r="Z323" s="1"/>
       <c r="AA323" s="1"/>
     </row>
-    <row r="324" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" ht="15.6">
       <c r="A324">
         <v>323</v>
       </c>
@@ -23123,7 +22963,7 @@
       <c r="X324" s="1"/>
       <c r="Y324" s="1"/>
     </row>
-    <row r="325" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" ht="15.6">
       <c r="A325">
         <v>324</v>
       </c>
@@ -23189,7 +23029,7 @@
       <c r="Z325" s="1"/>
       <c r="AA325" s="1"/>
     </row>
-    <row r="326" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" ht="15.6">
       <c r="A326">
         <v>325</v>
       </c>
@@ -23258,7 +23098,7 @@
       <c r="Z326" s="1"/>
       <c r="AA326" s="1"/>
     </row>
-    <row r="327" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" ht="15.6">
       <c r="A327">
         <v>326</v>
       </c>
@@ -23327,7 +23167,7 @@
       <c r="Z327" s="1"/>
       <c r="AA327" s="1"/>
     </row>
-    <row r="328" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" ht="15.6">
       <c r="A328">
         <v>327</v>
       </c>
@@ -23396,7 +23236,7 @@
       <c r="Z328" s="1"/>
       <c r="AA328" s="1"/>
     </row>
-    <row r="329" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" ht="15.6">
       <c r="A329">
         <v>328</v>
       </c>
@@ -23465,7 +23305,7 @@
       <c r="Z329" s="1"/>
       <c r="AA329" s="1"/>
     </row>
-    <row r="330" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" ht="15.6">
       <c r="A330">
         <v>329</v>
       </c>
@@ -23534,7 +23374,7 @@
       <c r="Z330" s="1"/>
       <c r="AA330" s="1"/>
     </row>
-    <row r="331" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" ht="15.6">
       <c r="A331">
         <v>330</v>
       </c>
@@ -23596,7 +23436,7 @@
         <v>2417387</v>
       </c>
     </row>
-    <row r="332" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" ht="15.6">
       <c r="A332">
         <v>331</v>
       </c>
@@ -23665,7 +23505,7 @@
       <c r="Z332" s="1"/>
       <c r="AA332" s="1"/>
     </row>
-    <row r="333" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" ht="15.6">
       <c r="A333">
         <v>332</v>
       </c>
@@ -23729,7 +23569,7 @@
       <c r="X333" s="1"/>
       <c r="Y333" s="1"/>
     </row>
-    <row r="334" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" ht="15.6">
       <c r="A334">
         <v>333</v>
       </c>
@@ -23793,7 +23633,7 @@
       <c r="X334" s="1"/>
       <c r="Y334" s="1"/>
     </row>
-    <row r="335" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" ht="15.6">
       <c r="A335">
         <v>334</v>
       </c>
@@ -23862,7 +23702,7 @@
       <c r="Z335" s="1"/>
       <c r="AA335" s="1"/>
     </row>
-    <row r="336" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" ht="15.6">
       <c r="A336">
         <v>335</v>
       </c>
@@ -23931,7 +23771,7 @@
       <c r="Z336" s="1"/>
       <c r="AA336" s="1"/>
     </row>
-    <row r="337" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" ht="15.6">
       <c r="A337">
         <v>336</v>
       </c>
@@ -24000,7 +23840,7 @@
       <c r="Z337" s="1"/>
       <c r="AA337" s="1"/>
     </row>
-    <row r="338" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" ht="15.6">
       <c r="A338">
         <v>337</v>
       </c>
@@ -24069,7 +23909,7 @@
       <c r="Z338" s="1"/>
       <c r="AA338" s="1"/>
     </row>
-    <row r="339" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" ht="15.6">
       <c r="A339">
         <v>338</v>
       </c>
@@ -24138,7 +23978,7 @@
       <c r="Z339" s="1"/>
       <c r="AA339" s="1"/>
     </row>
-    <row r="340" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" ht="15.6">
       <c r="A340">
         <v>339</v>
       </c>
@@ -24200,7 +24040,7 @@
         <v>5049357</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" ht="15.6">
       <c r="A341">
         <v>340</v>
       </c>
@@ -24269,7 +24109,7 @@
       <c r="Z341" s="1"/>
       <c r="AA341" s="1"/>
     </row>
-    <row r="342" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" ht="15.6">
       <c r="A342">
         <v>341</v>
       </c>
@@ -24331,7 +24171,7 @@
         <v>1269798</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" ht="15.6">
       <c r="A343">
         <v>342</v>
       </c>
@@ -24393,7 +24233,7 @@
         <v>2437968</v>
       </c>
     </row>
-    <row r="344" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" ht="15.6">
       <c r="A344">
         <v>343</v>
       </c>
@@ -24462,7 +24302,7 @@
       <c r="Z344" s="1"/>
       <c r="AA344" s="1"/>
     </row>
-    <row r="345" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" ht="15.6">
       <c r="A345">
         <v>344</v>
       </c>
@@ -24531,7 +24371,7 @@
       <c r="Z345" s="1"/>
       <c r="AA345" s="1"/>
     </row>
-    <row r="346" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" ht="15.6">
       <c r="A346">
         <v>345</v>
       </c>
@@ -24600,7 +24440,7 @@
       <c r="Z346" s="1"/>
       <c r="AA346" s="1"/>
     </row>
-    <row r="347" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" ht="15.6">
       <c r="A347">
         <v>346</v>
       </c>
@@ -24669,7 +24509,7 @@
       <c r="Z347" s="1"/>
       <c r="AA347" s="1"/>
     </row>
-    <row r="348" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" ht="15.6">
       <c r="A348">
         <v>347</v>
       </c>
@@ -24738,7 +24578,7 @@
       <c r="Z348" s="1"/>
       <c r="AA348" s="1"/>
     </row>
-    <row r="349" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" ht="15.6">
       <c r="A349">
         <v>348</v>
       </c>
@@ -24800,7 +24640,7 @@
         <v>467684</v>
       </c>
     </row>
-    <row r="350" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" ht="15.6">
       <c r="A350">
         <v>349</v>
       </c>
@@ -24869,7 +24709,7 @@
       <c r="Z350" s="1"/>
       <c r="AA350" s="1"/>
     </row>
-    <row r="351" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" ht="15.6">
       <c r="A351">
         <v>350</v>
       </c>
@@ -24933,7 +24773,7 @@
       <c r="X351" s="1"/>
       <c r="Y351" s="1"/>
     </row>
-    <row r="352" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" ht="15.6">
       <c r="A352">
         <v>351</v>
       </c>
@@ -24999,7 +24839,7 @@
       <c r="Z352" s="1"/>
       <c r="AA352" s="1"/>
     </row>
-    <row r="353" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:29" ht="15.6">
       <c r="A353">
         <v>352</v>
       </c>
@@ -25068,7 +24908,7 @@
       <c r="Z353" s="1"/>
       <c r="AA353" s="1"/>
     </row>
-    <row r="354" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:29" ht="15.6">
       <c r="A354">
         <v>353</v>
       </c>
@@ -25137,7 +24977,7 @@
       <c r="Z354" s="1"/>
       <c r="AA354" s="1"/>
     </row>
-    <row r="355" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:29" ht="15.6">
       <c r="A355">
         <v>354</v>
       </c>
@@ -25206,7 +25046,7 @@
       <c r="Z355" s="1"/>
       <c r="AA355" s="1"/>
     </row>
-    <row r="356" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:29" ht="15.6">
       <c r="A356">
         <v>355</v>
       </c>
@@ -25275,7 +25115,7 @@
       <c r="Z356" s="1"/>
       <c r="AA356" s="1"/>
     </row>
-    <row r="357" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:29" ht="15.6">
       <c r="A357">
         <v>356</v>
       </c>
@@ -25344,7 +25184,7 @@
       <c r="Z357" s="1"/>
       <c r="AA357" s="1"/>
     </row>
-    <row r="358" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:29" ht="15.6">
       <c r="A358">
         <v>357</v>
       </c>
@@ -25406,7 +25246,7 @@
         <v>16813491</v>
       </c>
     </row>
-    <row r="359" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:29" ht="15.6">
       <c r="A359">
         <v>358</v>
       </c>
@@ -25475,7 +25315,7 @@
       <c r="Z359" s="1"/>
       <c r="AA359" s="1"/>
     </row>
-    <row r="360" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:29" ht="15.6">
       <c r="A360">
         <v>359</v>
       </c>
@@ -25539,7 +25379,7 @@
       <c r="X360" s="1"/>
       <c r="Y360" s="1"/>
     </row>
-    <row r="361" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:29" ht="15.6">
       <c r="A361">
         <v>360</v>
       </c>
@@ -25608,7 +25448,7 @@
       <c r="Z361" s="1"/>
       <c r="AA361" s="1"/>
     </row>
-    <row r="362" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:29" ht="15.6">
       <c r="A362">
         <v>361</v>
       </c>
@@ -25677,7 +25517,7 @@
       <c r="Z362" s="1"/>
       <c r="AA362" s="1"/>
     </row>
-    <row r="363" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:29" ht="15.6">
       <c r="A363">
         <v>362</v>
       </c>
@@ -25746,7 +25586,7 @@
       <c r="Z363" s="1"/>
       <c r="AA363" s="1"/>
     </row>
-    <row r="364" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:29" ht="15.6">
       <c r="A364">
         <v>363</v>
       </c>
@@ -25815,7 +25655,7 @@
       <c r="Z364" s="1"/>
       <c r="AA364" s="1"/>
     </row>
-    <row r="365" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:29" ht="15.6">
       <c r="A365">
         <v>364</v>
       </c>
@@ -25884,7 +25724,7 @@
       <c r="Z365" s="1"/>
       <c r="AA365" s="1"/>
     </row>
-    <row r="366" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:29" ht="15.6">
       <c r="A366">
         <v>365</v>
       </c>
@@ -25953,7 +25793,7 @@
       <c r="AB366" s="1"/>
       <c r="AC366" s="1"/>
     </row>
-    <row r="367" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:29" ht="15.6">
       <c r="A367">
         <v>366</v>
       </c>
@@ -26015,7 +25855,7 @@
         <v>6450157</v>
       </c>
     </row>
-    <row r="368" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:29" ht="15.6">
       <c r="A368">
         <v>367</v>
       </c>
@@ -26084,7 +25924,7 @@
       <c r="Z368" s="1"/>
       <c r="AA368" s="1"/>
     </row>
-    <row r="369" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" ht="15.6">
       <c r="A369">
         <v>368</v>
       </c>
@@ -26148,7 +25988,7 @@
       <c r="X369" s="1"/>
       <c r="Y369" s="1"/>
     </row>
-    <row r="370" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" ht="15.6">
       <c r="A370">
         <v>369</v>
       </c>
@@ -26214,7 +26054,7 @@
       <c r="Z370" s="1"/>
       <c r="AA370" s="1"/>
     </row>
-    <row r="371" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" ht="15.6">
       <c r="A371">
         <v>370</v>
       </c>
@@ -26283,7 +26123,7 @@
       <c r="Z371" s="1"/>
       <c r="AA371" s="1"/>
     </row>
-    <row r="372" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" ht="15.6">
       <c r="A372">
         <v>371</v>
       </c>
@@ -26352,7 +26192,7 @@
       <c r="Z372" s="1"/>
       <c r="AA372" s="1"/>
     </row>
-    <row r="373" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" ht="15.6">
       <c r="A373">
         <v>372</v>
       </c>
@@ -26421,7 +26261,7 @@
       <c r="Z373" s="1"/>
       <c r="AA373" s="1"/>
     </row>
-    <row r="374" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" ht="15.6">
       <c r="A374">
         <v>373</v>
       </c>
@@ -26490,7 +26330,7 @@
       <c r="Z374" s="1"/>
       <c r="AA374" s="1"/>
     </row>
-    <row r="375" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" ht="15.6">
       <c r="A375">
         <v>374</v>
       </c>
@@ -26559,7 +26399,7 @@
       <c r="Z375" s="1"/>
       <c r="AA375" s="1"/>
     </row>
-    <row r="376" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" ht="15.6">
       <c r="A376">
         <v>375</v>
       </c>
@@ -26621,7 +26461,7 @@
         <v>15060443</v>
       </c>
     </row>
-    <row r="377" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" ht="15.6">
       <c r="A377">
         <v>376</v>
       </c>
@@ -26690,7 +26530,7 @@
       <c r="Z377" s="1"/>
       <c r="AA377" s="1"/>
     </row>
-    <row r="378" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" ht="15.6">
       <c r="A378">
         <v>377</v>
       </c>
@@ -26754,7 +26594,7 @@
       <c r="X378" s="1"/>
       <c r="Y378" s="1"/>
     </row>
-    <row r="379" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" ht="15.6">
       <c r="A379">
         <v>378</v>
       </c>
@@ -26818,7 +26658,7 @@
       <c r="X379" s="1"/>
       <c r="Y379" s="1"/>
     </row>
-    <row r="380" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" ht="15.6">
       <c r="A380">
         <v>379</v>
       </c>
@@ -26884,7 +26724,7 @@
       <c r="Z380" s="1"/>
       <c r="AA380" s="1"/>
     </row>
-    <row r="381" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" ht="15.6">
       <c r="A381">
         <v>380</v>
       </c>
@@ -26953,7 +26793,7 @@
       <c r="Z381" s="1"/>
       <c r="AA381" s="1"/>
     </row>
-    <row r="382" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:27" ht="15.6">
       <c r="A382">
         <v>381</v>
       </c>
@@ -27022,7 +26862,7 @@
       <c r="Z382" s="1"/>
       <c r="AA382" s="1"/>
     </row>
-    <row r="383" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:27" ht="15.6">
       <c r="A383">
         <v>382</v>
       </c>
@@ -27091,7 +26931,7 @@
       <c r="Z383" s="1"/>
       <c r="AA383" s="1"/>
     </row>
-    <row r="384" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:27" ht="15.6">
       <c r="A384">
         <v>383</v>
       </c>
@@ -27160,7 +27000,7 @@
       <c r="Z384" s="1"/>
       <c r="AA384" s="1"/>
     </row>
-    <row r="385" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:27" ht="15.6">
       <c r="A385">
         <v>384</v>
       </c>
@@ -27229,7 +27069,7 @@
       <c r="Z385" s="1"/>
       <c r="AA385" s="1"/>
     </row>
-    <row r="386" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:27" ht="15.6">
       <c r="A386">
         <v>385</v>
       </c>
@@ -27291,7 +27131,7 @@
         <v>1110254</v>
       </c>
     </row>
-    <row r="387" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:27" ht="15.6">
       <c r="A387">
         <v>386</v>
       </c>
@@ -27360,7 +27200,7 @@
       <c r="Z387" s="1"/>
       <c r="AA387" s="1"/>
     </row>
-    <row r="388" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:27" ht="15.6">
       <c r="A388">
         <v>387</v>
       </c>
@@ -27424,7 +27264,7 @@
       <c r="X388" s="1"/>
       <c r="Y388" s="1"/>
     </row>
-    <row r="389" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:27" ht="15.6">
       <c r="A389">
         <v>388</v>
       </c>
@@ -27493,7 +27333,7 @@
       <c r="Z389" s="1"/>
       <c r="AA389" s="1"/>
     </row>
-    <row r="390" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:27" ht="15.6">
       <c r="A390">
         <v>389</v>
       </c>
@@ -27562,7 +27402,7 @@
       <c r="Z390" s="1"/>
       <c r="AA390" s="1"/>
     </row>
-    <row r="391" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:27" ht="15.6">
       <c r="A391">
         <v>390</v>
       </c>
@@ -27631,7 +27471,7 @@
       <c r="Z391" s="1"/>
       <c r="AA391" s="1"/>
     </row>
-    <row r="392" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:27" ht="15.6">
       <c r="A392">
         <v>391</v>
       </c>
@@ -27700,7 +27540,7 @@
       <c r="Z392" s="1"/>
       <c r="AA392" s="1"/>
     </row>
-    <row r="393" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:27" ht="15.6">
       <c r="A393">
         <v>392</v>
       </c>
@@ -27769,7 +27609,7 @@
       <c r="Z393" s="1"/>
       <c r="AA393" s="1"/>
     </row>
-    <row r="394" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:27" ht="15.6">
       <c r="A394">
         <v>393</v>
       </c>
@@ -27831,7 +27671,7 @@
         <v>1368797</v>
       </c>
     </row>
-    <row r="395" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:27" ht="15.6">
       <c r="A395">
         <v>394</v>
       </c>
@@ -27900,7 +27740,7 @@
       <c r="Z395" s="1"/>
       <c r="AA395" s="1"/>
     </row>
-    <row r="396" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:27" ht="15.6">
       <c r="A396">
         <v>395</v>
       </c>
@@ -27964,7 +27804,7 @@
       <c r="X396" s="1"/>
       <c r="Y396" s="1"/>
     </row>
-    <row r="397" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:27" ht="15.6">
       <c r="A397">
         <v>396</v>
       </c>
@@ -28030,7 +27870,7 @@
       <c r="Z397" s="1"/>
       <c r="AA397" s="1"/>
     </row>
-    <row r="398" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:27" ht="15.6">
       <c r="A398">
         <v>397</v>
       </c>
@@ -28094,7 +27934,7 @@
       <c r="X398" s="1"/>
       <c r="Y398" s="1"/>
     </row>
-    <row r="399" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:27" ht="15.6">
       <c r="A399">
         <v>398</v>
       </c>
@@ -28158,7 +27998,7 @@
       <c r="X399" s="1"/>
       <c r="Y399" s="1"/>
     </row>
-    <row r="400" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:27" ht="15.6">
       <c r="A400">
         <v>399</v>
       </c>
@@ -28220,7 +28060,7 @@
         <v>9563877</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" ht="15.6">
       <c r="A401">
         <v>400</v>
       </c>
@@ -28282,7 +28122,7 @@
         <v>507754</v>
       </c>
     </row>
-    <row r="402" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" ht="15.6">
       <c r="A402">
         <v>401</v>
       </c>
@@ -28344,7 +28184,7 @@
         <v>10211622</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" ht="15.6">
       <c r="A403">
         <v>402</v>
       </c>
@@ -28406,7 +28246,7 @@
         <v>4243348</v>
       </c>
     </row>
-    <row r="404" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" ht="15.6">
       <c r="A404">
         <v>403</v>
       </c>
@@ -28468,7 +28308,7 @@
         <v>3739158</v>
       </c>
     </row>
-    <row r="405" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" ht="15.6">
       <c r="A405">
         <v>404</v>
       </c>
@@ -28530,7 +28370,7 @@
         <v>10042872</v>
       </c>
     </row>
-    <row r="406" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" ht="15.6">
       <c r="A406">
         <v>405</v>
       </c>
@@ -28592,7 +28432,7 @@
         <v>735771</v>
       </c>
     </row>
-    <row r="407" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" ht="15.6">
       <c r="A407">
         <v>406</v>
       </c>
@@ -28661,7 +28501,7 @@
       <c r="Z407" s="1"/>
       <c r="AA407" s="1"/>
     </row>
-    <row r="408" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:27" ht="15.6">
       <c r="A408">
         <v>407</v>
       </c>
@@ -28730,7 +28570,7 @@
       <c r="Z408" s="1"/>
       <c r="AA408" s="1"/>
     </row>
-    <row r="409" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:27" ht="15.6">
       <c r="A409">
         <v>408</v>
       </c>
@@ -28799,7 +28639,7 @@
       <c r="Z409" s="1"/>
       <c r="AA409" s="1"/>
     </row>
-    <row r="410" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:27" ht="15.6">
       <c r="A410">
         <v>409</v>
       </c>
@@ -28868,7 +28708,7 @@
       <c r="Z410" s="1"/>
       <c r="AA410" s="1"/>
     </row>
-    <row r="411" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:27" ht="15.6">
       <c r="A411">
         <v>410</v>
       </c>
@@ -28937,7 +28777,7 @@
       <c r="Z411" s="1"/>
       <c r="AA411" s="1"/>
     </row>
-    <row r="412" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:27" ht="15.6">
       <c r="A412">
         <v>411</v>
       </c>
@@ -28999,7 +28839,7 @@
         <v>423113</v>
       </c>
     </row>
-    <row r="413" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:27" ht="15.6">
       <c r="A413">
         <v>412</v>
       </c>
@@ -29068,7 +28908,7 @@
       <c r="Z413" s="1"/>
       <c r="AA413" s="1"/>
     </row>
-    <row r="414" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:27" ht="15.6">
       <c r="A414">
         <v>413</v>
       </c>
@@ -29132,7 +28972,7 @@
       <c r="X414" s="1"/>
       <c r="Y414" s="1"/>
     </row>
-    <row r="415" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:27" ht="15.6">
       <c r="A415">
         <v>414</v>
       </c>
@@ -29198,7 +29038,7 @@
       <c r="Z415" s="1"/>
       <c r="AA415" s="1"/>
     </row>
-    <row r="416" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:27" ht="15.6">
       <c r="A416">
         <v>415</v>
       </c>
@@ -29267,7 +29107,7 @@
       <c r="Z416" s="1"/>
       <c r="AA416" s="1"/>
     </row>
-    <row r="417" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:29" ht="15.6">
       <c r="A417">
         <v>416</v>
       </c>
@@ -29336,7 +29176,7 @@
       <c r="Z417" s="1"/>
       <c r="AA417" s="1"/>
     </row>
-    <row r="418" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:29" ht="15.6">
       <c r="A418">
         <v>417</v>
       </c>
@@ -29408,7 +29248,7 @@
       <c r="AB418" s="1"/>
       <c r="AC418" s="1"/>
     </row>
-    <row r="419" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:29" ht="15.6">
       <c r="A419">
         <v>418</v>
       </c>
@@ -29477,7 +29317,7 @@
       <c r="Z419" s="1"/>
       <c r="AA419" s="1"/>
     </row>
-    <row r="420" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:29" ht="15.6">
       <c r="A420">
         <v>419</v>
       </c>
@@ -29539,7 +29379,7 @@
         <v>523003</v>
       </c>
     </row>
-    <row r="421" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:29" ht="15.6">
       <c r="A421">
         <v>420</v>
       </c>
@@ -29601,7 +29441,7 @@
         <v>5389370</v>
       </c>
     </row>
-    <row r="422" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:29" ht="15.6">
       <c r="A422">
         <v>421</v>
       </c>
@@ -29670,7 +29510,7 @@
       <c r="Z422" s="1"/>
       <c r="AA422" s="1"/>
     </row>
-    <row r="423" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:29" ht="15.6">
       <c r="A423">
         <v>422</v>
       </c>
@@ -29734,7 +29574,7 @@
       <c r="X423" s="1"/>
       <c r="Y423" s="1"/>
     </row>
-    <row r="424" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:29" ht="15.6">
       <c r="A424">
         <v>423</v>
       </c>
@@ -29798,7 +29638,7 @@
       <c r="X424" s="1"/>
       <c r="Y424" s="1"/>
     </row>
-    <row r="425" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:29" ht="15.6">
       <c r="A425">
         <v>424</v>
       </c>
@@ -29867,7 +29707,7 @@
       <c r="Z425" s="1"/>
       <c r="AA425" s="1"/>
     </row>
-    <row r="426" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:29" ht="15.6">
       <c r="A426">
         <v>425</v>
       </c>
@@ -29936,7 +29776,7 @@
       <c r="Z426" s="1"/>
       <c r="AA426" s="1"/>
     </row>
-    <row r="427" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:29" ht="15.6">
       <c r="A427">
         <v>426</v>
       </c>
@@ -30005,7 +29845,7 @@
       <c r="Z427" s="1"/>
       <c r="AA427" s="1"/>
     </row>
-    <row r="428" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:29" ht="15.6">
       <c r="A428">
         <v>427</v>
       </c>
@@ -30074,7 +29914,7 @@
       <c r="Z428" s="1"/>
       <c r="AA428" s="1"/>
     </row>
-    <row r="429" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:29" ht="15.6">
       <c r="A429">
         <v>428</v>
       </c>
@@ -30143,7 +29983,7 @@
       <c r="Z429" s="1"/>
       <c r="AA429" s="1"/>
     </row>
-    <row r="430" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:29" ht="15.6">
       <c r="A430">
         <v>429</v>
       </c>
@@ -30205,7 +30045,7 @@
         <v>794191</v>
       </c>
     </row>
-    <row r="431" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:29" ht="15.6">
       <c r="A431">
         <v>430</v>
       </c>
@@ -30274,7 +30114,7 @@
       <c r="Z431" s="1"/>
       <c r="AA431" s="1"/>
     </row>
-    <row r="432" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:29" ht="15.6">
       <c r="A432">
         <v>431</v>
       </c>
@@ -30338,7 +30178,7 @@
       <c r="X432" s="1"/>
       <c r="Y432" s="1"/>
     </row>
-    <row r="433" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:27" ht="15.6">
       <c r="A433">
         <v>432</v>
       </c>
@@ -30402,7 +30242,7 @@
       <c r="X433" s="1"/>
       <c r="Y433" s="1"/>
     </row>
-    <row r="434" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:27" ht="15.6">
       <c r="A434">
         <v>433</v>
       </c>
@@ -30471,7 +30311,7 @@
       <c r="Z434" s="1"/>
       <c r="AA434" s="1"/>
     </row>
-    <row r="435" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:27" ht="15.6">
       <c r="A435">
         <v>434</v>
       </c>
@@ -30540,7 +30380,7 @@
       <c r="Z435" s="1"/>
       <c r="AA435" s="1"/>
     </row>
-    <row r="436" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" ht="15.6">
       <c r="A436">
         <v>435</v>
       </c>
@@ -30609,7 +30449,7 @@
       <c r="Z436" s="1"/>
       <c r="AA436" s="1"/>
     </row>
-    <row r="437" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" ht="15.6">
       <c r="A437">
         <v>436</v>
       </c>
@@ -30678,7 +30518,7 @@
       <c r="Z437" s="1"/>
       <c r="AA437" s="1"/>
     </row>
-    <row r="438" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" ht="15.6">
       <c r="A438">
         <v>437</v>
       </c>
@@ -30747,7 +30587,7 @@
       <c r="Z438" s="1"/>
       <c r="AA438" s="1"/>
     </row>
-    <row r="439" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" ht="15.6">
       <c r="A439">
         <v>438</v>
       </c>
@@ -30809,7 +30649,7 @@
         <v>4106395</v>
       </c>
     </row>
-    <row r="440" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" ht="15.6">
       <c r="A440">
         <v>439</v>
       </c>
@@ -30878,7 +30718,7 @@
       <c r="Z440" s="1"/>
       <c r="AA440" s="1"/>
     </row>
-    <row r="441" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" ht="15.6">
       <c r="A441">
         <v>440</v>
       </c>
@@ -30942,7 +30782,7 @@
       <c r="X441" s="1"/>
       <c r="Y441" s="1"/>
     </row>
-    <row r="442" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" ht="15.6">
       <c r="A442">
         <v>441</v>
       </c>
@@ -31006,7 +30846,7 @@
       <c r="X442" s="1"/>
       <c r="Y442" s="1"/>
     </row>
-    <row r="443" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:27" ht="15.6">
       <c r="A443">
         <v>442</v>
       </c>
@@ -31075,7 +30915,7 @@
       <c r="Z443" s="1"/>
       <c r="AA443" s="1"/>
     </row>
-    <row r="444" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" ht="15.6">
       <c r="A444">
         <v>443</v>
       </c>
@@ -31144,7 +30984,7 @@
       <c r="Z444" s="1"/>
       <c r="AA444" s="1"/>
     </row>
-    <row r="445" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:27" ht="15.6">
       <c r="A445">
         <v>444</v>
       </c>
@@ -31213,7 +31053,7 @@
       <c r="Z445" s="1"/>
       <c r="AA445" s="1"/>
     </row>
-    <row r="446" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:27" ht="15.6">
       <c r="A446">
         <v>445</v>
       </c>
@@ -31282,7 +31122,7 @@
       <c r="Z446" s="1"/>
       <c r="AA446" s="1"/>
     </row>
-    <row r="447" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:27" ht="15.6">
       <c r="A447">
         <v>446</v>
       </c>
@@ -31351,7 +31191,7 @@
       <c r="Z447" s="1"/>
       <c r="AA447" s="1"/>
     </row>
-    <row r="448" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:27" ht="15.6">
       <c r="A448">
         <v>447</v>
       </c>
@@ -31413,7 +31253,7 @@
         <v>1059901</v>
       </c>
     </row>
-    <row r="449" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:27" ht="15.6">
       <c r="A449">
         <v>448</v>
       </c>
@@ -31482,7 +31322,7 @@
       <c r="Z449" s="1"/>
       <c r="AA449" s="1"/>
     </row>
-    <row r="450" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:27" ht="15.6">
       <c r="A450">
         <v>449</v>
       </c>
@@ -31546,7 +31386,7 @@
       <c r="X450" s="1"/>
       <c r="Y450" s="1"/>
     </row>
-    <row r="451" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:27" ht="15.6">
       <c r="A451">
         <v>450</v>
       </c>
@@ -31612,7 +31452,7 @@
       <c r="Z451" s="1"/>
       <c r="AA451" s="1"/>
     </row>
-    <row r="452" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:27" ht="15.6">
       <c r="A452">
         <v>451</v>
       </c>
@@ -31676,7 +31516,7 @@
       <c r="X452" s="1"/>
       <c r="Y452" s="1"/>
     </row>
-    <row r="453" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:27" ht="15.6">
       <c r="A453">
         <v>452</v>
       </c>
@@ -31740,7 +31580,7 @@
       <c r="X453" s="1"/>
       <c r="Y453" s="1"/>
     </row>
-    <row r="454" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:27" ht="15.6">
       <c r="A454">
         <v>453</v>
       </c>
@@ -31802,7 +31642,7 @@
         <v>10605533</v>
       </c>
     </row>
-    <row r="455" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:27" ht="15.6">
       <c r="A455">
         <v>454</v>
       </c>
@@ -31864,7 +31704,7 @@
         <v>4689843</v>
       </c>
     </row>
-    <row r="456" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:27" ht="15.6">
       <c r="A456">
         <v>455</v>
       </c>
@@ -31926,7 +31766,7 @@
         <v>3825110</v>
       </c>
     </row>
-    <row r="457" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:27" ht="15.6">
       <c r="A457">
         <v>456</v>
       </c>
@@ -31988,7 +31828,7 @@
         <v>10297026</v>
       </c>
     </row>
-    <row r="458" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:27" ht="15.6">
       <c r="A458">
         <v>457</v>
       </c>
@@ -32050,7 +31890,7 @@
         <v>790260</v>
       </c>
     </row>
-    <row r="459" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:27" ht="15.6">
       <c r="A459">
         <v>458</v>
       </c>
@@ -32114,7 +31954,7 @@
       <c r="X459" s="1"/>
       <c r="Y459" s="1"/>
     </row>
-    <row r="460" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:27" ht="15.6">
       <c r="A460">
         <v>459</v>
       </c>
@@ -32178,7 +32018,7 @@
       <c r="X460" s="1"/>
       <c r="Y460" s="1"/>
     </row>
-    <row r="461" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:27" ht="15.6">
       <c r="A461">
         <v>460</v>
       </c>
@@ -32244,7 +32084,7 @@
       <c r="Z461" s="1"/>
       <c r="AA461" s="1"/>
     </row>
-    <row r="462" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:27" ht="15.6">
       <c r="A462">
         <v>461</v>
       </c>
@@ -32308,7 +32148,7 @@
       <c r="X462" s="1"/>
       <c r="Y462" s="1"/>
     </row>
-    <row r="463" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:27" ht="15.6">
       <c r="A463">
         <v>462</v>
       </c>
@@ -32372,7 +32212,7 @@
       <c r="X463" s="1"/>
       <c r="Y463" s="1"/>
     </row>
-    <row r="464" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:27" ht="15.6">
       <c r="A464">
         <v>463</v>
       </c>
@@ -32434,7 +32274,7 @@
         <v>430017</v>
       </c>
     </row>
-    <row r="465" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:27" ht="15.6">
       <c r="A465">
         <v>464</v>
       </c>
@@ -32496,7 +32336,7 @@
         <v>6348337</v>
       </c>
     </row>
-    <row r="466" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:27" ht="15.6">
       <c r="A466">
         <v>465</v>
       </c>
@@ -32558,7 +32398,7 @@
         <v>5398674</v>
       </c>
     </row>
-    <row r="467" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:27" ht="15.6">
       <c r="A467">
         <v>466</v>
       </c>
@@ -32622,7 +32462,7 @@
       <c r="X467" s="1"/>
       <c r="Y467" s="1"/>
     </row>
-    <row r="468" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:27" ht="15.6">
       <c r="A468">
         <v>467</v>
       </c>
@@ -32686,7 +32526,7 @@
       <c r="X468" s="1"/>
       <c r="Y468" s="1"/>
     </row>
-    <row r="469" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:27" ht="15.6">
       <c r="A469">
         <v>468</v>
       </c>
@@ -32752,27 +32592,27 @@
       <c r="Z469" s="1"/>
       <c r="AA469" s="1"/>
     </row>
-    <row r="470" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:27" ht="15" customHeight="1">
       <c r="X470" s="1"/>
       <c r="Y470" s="1"/>
     </row>
-    <row r="471" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:27" ht="15" customHeight="1">
       <c r="X471" s="1"/>
       <c r="Y471" s="1"/>
     </row>
-    <row r="472" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:27" ht="15" customHeight="1">
       <c r="E472" s="1"/>
     </row>
-    <row r="473" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:27" ht="15" customHeight="1">
       <c r="E473" s="1"/>
     </row>
-    <row r="474" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:27" ht="15" customHeight="1">
       <c r="E474" s="1"/>
     </row>
-    <row r="475" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:27" ht="15" customHeight="1">
       <c r="E475" s="1"/>
     </row>
-    <row r="476" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:27" ht="15" customHeight="1">
       <c r="E476" s="1"/>
     </row>
   </sheetData>
@@ -32789,47 +32629,47 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:CG10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="BY1" sqref="BY1"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="41.45" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>77</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>81</v>
@@ -32856,25 +32696,25 @@
         <v>88</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="Z1" s="8" t="s">
         <v>96</v>
@@ -32886,2379 +32726,819 @@
         <v>98</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AD1" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="BC1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="BH1" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="BK1" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="BL1" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="BN1" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="BO1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="BP1" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="BQ1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="BR1" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="BS1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BU1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="BV1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BW1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BX1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY1" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="BZ1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="CA1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="CB1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="CC1" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="CD1" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="CE1" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="CF1" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="CG1" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:34" ht="15" customHeight="1">
       <c r="A2" s="8">
         <v>2013</v>
       </c>
-      <c r="B2" s="9">
-        <v>13.8</v>
+      <c r="B2" s="8">
+        <v>14</v>
       </c>
       <c r="C2" s="8">
+        <v>7.9</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I2" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="M2" s="8">
+        <v>18.7</v>
+      </c>
+      <c r="N2" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="O2" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8">
+        <v>3.8</v>
+      </c>
+      <c r="S2" s="8">
         <v>10.6</v>
       </c>
-      <c r="D2" s="9">
-        <v>17</v>
-      </c>
-      <c r="E2" s="8">
-        <v>7.9</v>
-      </c>
-      <c r="F2" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="G2" s="8">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="H2" s="9">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I2" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="J2" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="T2" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="U2" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>7.1</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8">
         <v>0.3</v>
       </c>
-      <c r="L2" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="M2" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="N2" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O2" s="8">
-        <v>3.4</v>
-      </c>
-      <c r="P2" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>1</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="S2" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T2" s="9">
-        <v>3664</v>
-      </c>
-      <c r="U2" s="9">
-        <v>1028</v>
-      </c>
-      <c r="V2" s="9">
-        <v>2636</v>
-      </c>
-      <c r="W2" s="9">
-        <v>2486</v>
-      </c>
-      <c r="X2" s="8">
-        <v>640</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>1846</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>988</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>241</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>747</v>
-      </c>
-      <c r="AC2" s="8">
-        <v>62</v>
-      </c>
-      <c r="AD2" s="8">
-        <v>19</v>
-      </c>
       <c r="AE2" s="8">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="8">
-        <v>237</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>68</v>
-      </c>
-      <c r="AH2" s="8">
-        <v>169</v>
-      </c>
-      <c r="AI2" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AJ2" s="8">
-        <v>4.8</v>
-      </c>
-      <c r="AK2" s="8">
-        <v>11.7</v>
-      </c>
-      <c r="AL2" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="AM2" s="8">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="8">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AO2" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AP2" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AQ2" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="AR2" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="AU2" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AV2" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="AW2" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AX2" s="8">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="AY2" s="8">
-        <v>13.8</v>
-      </c>
-      <c r="AZ2" s="8">
-        <v>21.4</v>
-      </c>
-      <c r="BA2" s="8">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="BB2" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="BC2" s="8">
-        <v>13.3</v>
-      </c>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8">
-        <v>6.7</v>
-      </c>
-      <c r="BK2" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BL2" s="8">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="BM2" s="8">
-        <v>18.7</v>
-      </c>
-      <c r="BN2" s="8">
-        <v>17.5</v>
-      </c>
-      <c r="BO2" s="8">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="BP2" s="8">
-        <v>10.5</v>
-      </c>
-      <c r="BQ2" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="BR2" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="BS2" s="8"/>
-      <c r="BT2" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="BU2" s="8">
-        <v>10.6</v>
-      </c>
-      <c r="BV2" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="BW2" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BX2" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BY2" s="8"/>
-      <c r="BZ2" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="CA2" s="8">
-        <v>7.1</v>
-      </c>
-      <c r="CB2" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="CC2" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="CD2" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="CE2" s="8"/>
-      <c r="CF2" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="CG2" s="8">
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" ht="15">
       <c r="A3" s="8">
         <v>2014</v>
       </c>
-      <c r="B3" s="9">
-        <v>14.7</v>
+      <c r="B3" s="8">
+        <v>15</v>
       </c>
       <c r="C3" s="8">
-        <v>11.1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>18.3</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5</v>
       </c>
       <c r="E3" s="8">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9">
-        <v>6.3</v>
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G3" s="8">
-        <v>11.7</v>
-      </c>
-      <c r="H3" s="9">
-        <v>4.5999999999999996</v>
+        <v>1.8</v>
+      </c>
+      <c r="H3" s="8">
+        <v>19</v>
       </c>
       <c r="I3" s="8">
-        <v>3.9</v>
-      </c>
-      <c r="J3" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="K3" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="M3" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="N3" s="8">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8">
+        <v>4</v>
+      </c>
+      <c r="S3" s="8">
+        <v>12</v>
+      </c>
+      <c r="T3" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="U3" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="V3" s="8">
         <v>0.5</v>
       </c>
-      <c r="L3" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O3" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="P3" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="Q3" s="8">
+      <c r="W3" s="8"/>
+      <c r="X3" s="8">
         <v>1.8</v>
       </c>
-      <c r="R3" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="S3" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T3" s="9">
-        <v>3798</v>
-      </c>
-      <c r="U3" s="9">
-        <v>1075</v>
-      </c>
-      <c r="V3" s="9">
-        <v>2723</v>
-      </c>
-      <c r="W3" s="9">
-        <v>2706</v>
-      </c>
-      <c r="X3" s="8">
-        <v>711</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>1995</v>
+      <c r="Y3" s="8">
+        <v>7.2</v>
       </c>
       <c r="Z3" s="8">
-        <v>931</v>
+        <v>2.4</v>
       </c>
       <c r="AA3" s="8">
-        <v>252</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB3" s="8">
-        <v>679</v>
-      </c>
-      <c r="AC3" s="8">
-        <v>81</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AC3" s="8"/>
       <c r="AD3" s="8">
-        <v>27</v>
+        <v>0.6</v>
       </c>
       <c r="AE3" s="8">
-        <v>54</v>
-      </c>
-      <c r="AF3" s="8">
-        <v>514</v>
-      </c>
-      <c r="AG3" s="8">
-        <v>138</v>
-      </c>
-      <c r="AH3" s="8">
-        <v>376</v>
-      </c>
-      <c r="AI3" s="8">
-        <v>8.6</v>
-      </c>
-      <c r="AJ3" s="8">
-        <v>5</v>
-      </c>
-      <c r="AK3" s="8">
-        <v>12.1</v>
-      </c>
-      <c r="AL3" s="8">
-        <v>6.2</v>
-      </c>
-      <c r="AM3" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="AN3" s="8">
-        <v>8.9</v>
-      </c>
-      <c r="AO3" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="AP3" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="AQ3" s="8">
-        <v>3</v>
-      </c>
-      <c r="AR3" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="AS3" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AT3" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="AU3" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="AV3" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AW3" s="8">
         <v>1.7</v>
       </c>
-      <c r="AX3" s="8">
-        <v>19</v>
-      </c>
-      <c r="AY3" s="8">
-        <v>14.6</v>
-      </c>
-      <c r="AZ3" s="8">
-        <v>23.2</v>
-      </c>
-      <c r="BA3" s="8">
-        <v>10.5</v>
-      </c>
-      <c r="BB3" s="8">
-        <v>7.3</v>
-      </c>
-      <c r="BC3" s="8">
-        <v>14.2</v>
-      </c>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8">
-        <v>6.7</v>
-      </c>
-      <c r="BK3" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BL3" s="8">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="BM3" s="8">
-        <v>20.9</v>
-      </c>
-      <c r="BN3" s="8">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="BO3" s="8">
-        <v>25</v>
-      </c>
-      <c r="BP3" s="8">
-        <v>12</v>
-      </c>
-      <c r="BQ3" s="8">
-        <v>5.6</v>
-      </c>
-      <c r="BR3" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="BS3" s="8"/>
-      <c r="BT3" s="8">
-        <v>4</v>
-      </c>
-      <c r="BU3" s="8">
-        <v>12</v>
-      </c>
-      <c r="BV3" s="8">
-        <v>6.2</v>
-      </c>
-      <c r="BW3" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="BX3" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BY3" s="8"/>
-      <c r="BZ3" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="CA3" s="8">
-        <v>7.2</v>
-      </c>
-      <c r="CB3" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="CC3" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="CD3" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="CE3" s="8"/>
-      <c r="CF3" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="CG3" s="8">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:34" ht="15">
       <c r="A4" s="8">
         <v>2015</v>
       </c>
-      <c r="B4" s="9">
-        <v>16.3</v>
+      <c r="B4" s="8">
+        <v>16</v>
       </c>
       <c r="C4" s="8">
-        <v>11.8</v>
-      </c>
-      <c r="D4" s="9">
-        <v>20.8</v>
+        <v>10.4</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5</v>
       </c>
       <c r="E4" s="8">
-        <v>10.4</v>
-      </c>
-      <c r="F4" s="9">
-        <v>7.1</v>
+        <v>0.7</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
       </c>
       <c r="G4" s="8">
-        <v>13.7</v>
-      </c>
-      <c r="H4" s="9">
-        <v>4.7</v>
+        <v>3.1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>21.1</v>
       </c>
       <c r="I4" s="8">
-        <v>4</v>
-      </c>
-      <c r="J4" s="8">
-        <v>5.4</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0.7</v>
-      </c>
+        <v>12.2</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="8">
-        <v>0.6</v>
+        <v>7.7</v>
       </c>
       <c r="M4" s="8">
-        <v>0.8</v>
+        <v>21.2</v>
       </c>
       <c r="N4" s="8">
-        <v>4</v>
+        <v>13.9</v>
       </c>
       <c r="O4" s="8">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="P4" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q4" s="8">
-        <v>3.1</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1.9</v>
-      </c>
       <c r="S4" s="8">
+        <v>12.1</v>
+      </c>
+      <c r="T4" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="U4" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>7</v>
+      </c>
+      <c r="Z4" s="8">
         <v>4.2</v>
       </c>
-      <c r="T4" s="9">
-        <v>4235</v>
-      </c>
-      <c r="U4" s="9">
-        <v>1258</v>
-      </c>
-      <c r="V4" s="9">
-        <v>2977</v>
-      </c>
-      <c r="W4" s="9">
-        <v>3082</v>
-      </c>
-      <c r="X4" s="8">
-        <v>871</v>
-      </c>
-      <c r="Y4" s="9">
-        <v>2211</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>886</v>
-      </c>
       <c r="AA4" s="8">
-        <v>267</v>
+        <v>2.1</v>
       </c>
       <c r="AB4" s="8">
-        <v>619</v>
-      </c>
-      <c r="AC4" s="8">
-        <v>171</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AC4" s="8"/>
       <c r="AD4" s="8">
-        <v>58</v>
+        <v>0.9</v>
       </c>
       <c r="AE4" s="8">
-        <v>113</v>
-      </c>
-      <c r="AF4" s="8">
-        <v>999</v>
-      </c>
-      <c r="AG4" s="8">
-        <v>281</v>
-      </c>
-      <c r="AH4" s="8">
-        <v>718</v>
-      </c>
-      <c r="AI4" s="8">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AJ4" s="8">
-        <v>5.9</v>
-      </c>
-      <c r="AK4" s="8">
-        <v>13.3</v>
-      </c>
-      <c r="AL4" s="8">
-        <v>7</v>
-      </c>
-      <c r="AM4" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AN4" s="8">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AO4" s="8">
         <v>2</v>
       </c>
-      <c r="AP4" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="AQ4" s="8">
-        <v>2.8</v>
-      </c>
-      <c r="AR4" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AS4" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="AT4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AU4" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AV4" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="AW4" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="AX4" s="8">
-        <v>21.1</v>
-      </c>
-      <c r="AY4" s="8">
-        <v>15.8</v>
-      </c>
-      <c r="AZ4" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="BA4" s="8">
-        <v>12.2</v>
-      </c>
-      <c r="BB4" s="8">
-        <v>7.7</v>
-      </c>
-      <c r="BC4" s="8">
-        <v>17.3</v>
-      </c>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8">
-        <v>7.7</v>
-      </c>
-      <c r="BK4" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="BL4" s="8">
-        <v>10.9</v>
-      </c>
-      <c r="BM4" s="8">
-        <v>21.2</v>
-      </c>
-      <c r="BN4" s="8">
-        <v>16.8</v>
-      </c>
-      <c r="BO4" s="8">
-        <v>25.8</v>
-      </c>
-      <c r="BP4" s="8">
-        <v>13.9</v>
-      </c>
-      <c r="BQ4" s="8">
-        <v>6.6</v>
-      </c>
-      <c r="BR4" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BS4" s="8"/>
-      <c r="BT4" s="8">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BU4" s="8">
-        <v>12.1</v>
-      </c>
-      <c r="BV4" s="8">
-        <v>6.4</v>
-      </c>
-      <c r="BW4" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="BX4" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BY4" s="8"/>
-      <c r="BZ4" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="CA4" s="8">
-        <v>7</v>
-      </c>
-      <c r="CB4" s="8">
-        <v>4.2</v>
-      </c>
-      <c r="CC4" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="CD4" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="CE4" s="8"/>
-      <c r="CF4" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="CG4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:34" ht="15">
       <c r="A5" s="8">
         <v>2016</v>
       </c>
-      <c r="B5" s="9">
-        <v>19.8</v>
+      <c r="B5" s="8">
+        <v>20</v>
       </c>
       <c r="C5" s="8">
-        <v>13.4</v>
-      </c>
-      <c r="D5" s="9">
-        <v>26.2</v>
+        <v>13.3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
       </c>
       <c r="E5" s="8">
-        <v>13.3</v>
-      </c>
-      <c r="F5" s="9">
-        <v>8.5</v>
+        <v>1.3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3.9</v>
       </c>
       <c r="G5" s="8">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="H5" s="9">
-        <v>5.2</v>
+        <v>6.2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>25.3</v>
       </c>
       <c r="I5" s="8">
-        <v>4.3</v>
-      </c>
-      <c r="J5" s="8">
-        <v>6.2</v>
-      </c>
-      <c r="K5" s="8">
-        <v>1.3</v>
-      </c>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="8">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="M5" s="8">
-        <v>1.7</v>
+        <v>24.2</v>
       </c>
       <c r="N5" s="8">
-        <v>3.9</v>
+        <v>17.5</v>
       </c>
       <c r="O5" s="8">
-        <v>3.4</v>
+        <v>10.3</v>
       </c>
       <c r="P5" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>6.2</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="Q5" s="8"/>
       <c r="R5" s="8">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="S5" s="8">
-        <v>8.9</v>
-      </c>
-      <c r="T5" s="9">
-        <v>5376</v>
-      </c>
-      <c r="U5" s="9">
-        <v>1483</v>
-      </c>
-      <c r="V5" s="9">
-        <v>3893</v>
-      </c>
-      <c r="W5" s="9">
-        <v>4027</v>
-      </c>
-      <c r="X5" s="9">
-        <v>1041</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>2986</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>1146</v>
+        <v>13.9</v>
+      </c>
+      <c r="T5" s="8">
+        <v>7</v>
+      </c>
+      <c r="U5" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>8.1999999999999993</v>
       </c>
       <c r="AA5" s="8">
-        <v>294</v>
+        <v>5.6</v>
       </c>
       <c r="AB5" s="8">
-        <v>852</v>
-      </c>
-      <c r="AC5" s="8">
-        <v>289</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="AC5" s="8"/>
       <c r="AD5" s="8">
-        <v>88</v>
+        <v>2.7</v>
       </c>
       <c r="AE5" s="8">
-        <v>201</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>1958</v>
-      </c>
-      <c r="AG5" s="8">
-        <v>524</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>1434</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>12.4</v>
-      </c>
-      <c r="AJ5" s="8">
-        <v>7</v>
-      </c>
-      <c r="AK5" s="8">
-        <v>17.5</v>
-      </c>
-      <c r="AL5" s="8">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AM5" s="8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AN5" s="8">
-        <v>13.4</v>
-      </c>
-      <c r="AO5" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="AP5" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="AQ5" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="AR5" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="AS5" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="AT5" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="AU5" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="AV5" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="AW5" s="8">
-        <v>6.4</v>
-      </c>
-      <c r="AX5" s="8">
-        <v>25.3</v>
-      </c>
-      <c r="AY5" s="8">
-        <v>17.7</v>
-      </c>
-      <c r="AZ5" s="8">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="BA5" s="8">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="BB5" s="8">
-        <v>10.4</v>
-      </c>
-      <c r="BC5" s="8">
-        <v>24.7</v>
-      </c>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8">
-        <v>9.5</v>
-      </c>
-      <c r="BK5" s="8">
-        <v>5</v>
-      </c>
-      <c r="BL5" s="8">
-        <v>13.9</v>
-      </c>
-      <c r="BM5" s="8">
-        <v>24.2</v>
-      </c>
-      <c r="BN5" s="8">
-        <v>20.2</v>
-      </c>
-      <c r="BO5" s="8">
-        <v>28.3</v>
-      </c>
-      <c r="BP5" s="8">
-        <v>17.5</v>
-      </c>
-      <c r="BQ5" s="8">
-        <v>10.3</v>
-      </c>
-      <c r="BR5" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="BS5" s="8"/>
-      <c r="BT5" s="8">
-        <v>6.1</v>
-      </c>
-      <c r="BU5" s="8">
-        <v>13.9</v>
-      </c>
-      <c r="BV5" s="8">
-        <v>7</v>
-      </c>
-      <c r="BW5" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="BX5" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="BY5" s="8"/>
-      <c r="BZ5" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="CA5" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="CB5" s="8">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="CC5" s="8">
-        <v>5.6</v>
-      </c>
-      <c r="CD5" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="CE5" s="8"/>
-      <c r="CF5" s="8">
-        <v>2.7</v>
-      </c>
-      <c r="CG5" s="8">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="AF5" s="1"/>
+      <c r="AH5" s="1"/>
+    </row>
+    <row r="6" spans="1:34" ht="15">
       <c r="A6" s="8">
         <v>2017</v>
       </c>
-      <c r="B6" s="9">
-        <v>21.7</v>
+      <c r="B6" s="8">
+        <v>22</v>
       </c>
       <c r="C6" s="8">
-        <v>14.4</v>
-      </c>
-      <c r="D6" s="9">
-        <v>29.1</v>
+        <v>14.9</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
       </c>
       <c r="E6" s="8">
-        <v>14.9</v>
-      </c>
-      <c r="F6" s="9">
-        <v>9.4</v>
+        <v>1.7</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3.5</v>
       </c>
       <c r="G6" s="8">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="H6" s="9">
-        <v>5.2</v>
+        <v>9</v>
+      </c>
+      <c r="H6" s="8">
+        <v>27.5</v>
       </c>
       <c r="I6" s="8">
-        <v>4.2</v>
-      </c>
-      <c r="J6" s="8">
-        <v>6.1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1.7</v>
-      </c>
+        <v>20.6</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="8">
-        <v>1.2</v>
+        <v>10.6</v>
       </c>
       <c r="M6" s="8">
-        <v>2.2999999999999998</v>
+        <v>25.7</v>
       </c>
       <c r="N6" s="8">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="O6" s="8">
+        <v>12.9</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="S6" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="T6" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="U6" s="8">
         <v>3.5</v>
       </c>
-      <c r="O6" s="8">
-        <v>3</v>
-      </c>
-      <c r="P6" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="Q6" s="8">
+      <c r="V6" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="AA6" s="8">
         <v>9</v>
       </c>
-      <c r="R6" s="8">
-        <v>5</v>
-      </c>
-      <c r="S6" s="8">
-        <v>13</v>
-      </c>
-      <c r="T6" s="9">
-        <v>5455</v>
-      </c>
-      <c r="U6" s="9">
-        <v>1663</v>
-      </c>
-      <c r="V6" s="9">
-        <v>3792</v>
-      </c>
-      <c r="W6" s="9">
-        <v>4094</v>
-      </c>
-      <c r="X6" s="9">
-        <v>1209</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>2885</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>1050</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>322</v>
-      </c>
       <c r="AB6" s="8">
-        <v>728</v>
-      </c>
-      <c r="AC6" s="8">
-        <v>364</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="AC6" s="8"/>
       <c r="AD6" s="8">
-        <v>122</v>
+        <v>3.7</v>
       </c>
       <c r="AE6" s="8">
-        <v>242</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>2655</v>
-      </c>
-      <c r="AG6" s="8">
-        <v>778</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>1877</v>
-      </c>
-      <c r="AI6" s="8">
-        <v>12.6</v>
-      </c>
-      <c r="AJ6" s="8">
-        <v>7.9</v>
-      </c>
-      <c r="AK6" s="8">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="AL6" s="8">
-        <v>9.5</v>
-      </c>
-      <c r="AM6" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="AN6" s="8">
-        <v>13</v>
-      </c>
-      <c r="AO6" s="8">
-        <v>2.4</v>
-      </c>
-      <c r="AP6" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="AQ6" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="AR6" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AS6" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AT6" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AU6" s="8">
-        <v>6.1</v>
-      </c>
-      <c r="AV6" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="AW6" s="8">
-        <v>8.5</v>
-      </c>
-      <c r="AX6" s="8">
-        <v>27.5</v>
-      </c>
-      <c r="AY6" s="8">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="AZ6" s="8">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="BA6" s="8">
-        <v>20.6</v>
-      </c>
-      <c r="BB6" s="8">
-        <v>11.7</v>
-      </c>
-      <c r="BC6" s="8">
-        <v>30.8</v>
-      </c>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8">
-        <v>10.6</v>
-      </c>
-      <c r="BK6" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BL6" s="8">
-        <v>15.9</v>
-      </c>
-      <c r="BM6" s="8">
-        <v>25.7</v>
-      </c>
-      <c r="BN6" s="8">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="BO6" s="8">
-        <v>31.5</v>
-      </c>
-      <c r="BP6" s="8">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="BQ6" s="8">
-        <v>12.9</v>
-      </c>
-      <c r="BR6" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="BS6" s="8"/>
-      <c r="BT6" s="8">
-        <v>6.8</v>
-      </c>
-      <c r="BU6" s="8">
-        <v>15.7</v>
-      </c>
-      <c r="BV6" s="8">
-        <v>6.9</v>
-      </c>
-      <c r="BW6" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="BX6" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="BY6" s="8"/>
-      <c r="BZ6" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="CA6" s="8">
-        <v>7.2</v>
-      </c>
-      <c r="CB6" s="8">
-        <v>11.9</v>
-      </c>
-      <c r="CC6" s="8">
-        <v>9</v>
-      </c>
-      <c r="CD6" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="CE6" s="8"/>
-      <c r="CF6" s="8">
-        <v>3.7</v>
-      </c>
-      <c r="CG6" s="8">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="AF6" s="1"/>
+      <c r="AH6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" ht="15">
       <c r="A7" s="8">
         <v>2018</v>
       </c>
-      <c r="B7" s="9">
-        <v>20.7</v>
+      <c r="B7" s="8">
+        <v>21</v>
       </c>
       <c r="C7" s="8">
-        <v>13.6</v>
-      </c>
-      <c r="D7" s="9">
-        <v>27.9</v>
+        <v>14.6</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5</v>
       </c>
       <c r="E7" s="8">
-        <v>14.6</v>
-      </c>
-      <c r="F7" s="9">
-        <v>9</v>
+        <v>1.7</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.8</v>
       </c>
       <c r="G7" s="8">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="H7" s="9">
-        <v>4.5</v>
+        <v>9.9</v>
+      </c>
+      <c r="H7" s="8">
+        <v>25.9</v>
       </c>
       <c r="I7" s="8">
-        <v>3.7</v>
+        <v>21.3</v>
       </c>
       <c r="J7" s="8">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="K7" s="8">
-        <v>1.7</v>
+        <v>12.3</v>
       </c>
       <c r="L7" s="8">
-        <v>1.2</v>
+        <v>11</v>
       </c>
       <c r="M7" s="8">
-        <v>2.2000000000000002</v>
+        <v>26.8</v>
       </c>
       <c r="N7" s="8">
-        <v>2.8</v>
+        <v>18.8</v>
       </c>
       <c r="O7" s="8">
-        <v>2.5</v>
+        <v>14.1</v>
       </c>
       <c r="P7" s="8">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" s="8">
-        <v>9.9</v>
+        <v>4</v>
       </c>
       <c r="R7" s="8">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="S7" s="8">
-        <v>14.2</v>
-      </c>
-      <c r="T7" s="9">
-        <v>4633</v>
-      </c>
-      <c r="U7" s="9">
-        <v>1481</v>
-      </c>
-      <c r="V7" s="9">
-        <v>3152</v>
-      </c>
-      <c r="W7" s="9">
-        <v>3618</v>
-      </c>
-      <c r="X7" s="9">
-        <v>1091</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>2527</v>
+        <v>13.8</v>
+      </c>
+      <c r="T7" s="8">
+        <v>6</v>
+      </c>
+      <c r="U7" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>4.7</v>
       </c>
       <c r="Z7" s="8">
-        <v>790</v>
+        <v>12.7</v>
       </c>
       <c r="AA7" s="8">
-        <v>242</v>
+        <v>11.2</v>
       </c>
       <c r="AB7" s="8">
-        <v>548</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>352</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="AC7" s="8"/>
       <c r="AD7" s="8">
-        <v>117</v>
+        <v>4.7</v>
       </c>
       <c r="AE7" s="8">
-        <v>235</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>2640</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>799</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>1841</v>
-      </c>
-      <c r="AI7" s="8">
-        <v>10.8</v>
-      </c>
-      <c r="AJ7" s="8">
-        <v>7.1</v>
-      </c>
-      <c r="AK7" s="8">
-        <v>14.3</v>
-      </c>
-      <c r="AL7" s="8">
-        <v>8.4</v>
-      </c>
-      <c r="AM7" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="AN7" s="8">
-        <v>11.5</v>
-      </c>
-      <c r="AO7" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="AP7" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="AQ7" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="AR7" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AS7" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AT7" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AU7" s="8">
-        <v>6.1</v>
-      </c>
-      <c r="AV7" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="AW7" s="8">
-        <v>8.4</v>
-      </c>
-      <c r="AX7" s="8">
-        <v>25.9</v>
-      </c>
-      <c r="AY7" s="8">
-        <v>18</v>
-      </c>
-      <c r="AZ7" s="8">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="BA7" s="8">
-        <v>21.3</v>
-      </c>
-      <c r="BB7" s="8">
-        <v>11.6</v>
-      </c>
-      <c r="BC7" s="8">
-        <v>32.4</v>
-      </c>
-      <c r="BD7" s="8">
-        <v>3</v>
-      </c>
-      <c r="BE7" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="BF7" s="8">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="BG7" s="8">
-        <v>12.3</v>
-      </c>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8">
-        <v>17.7</v>
-      </c>
-      <c r="BJ7" s="8">
-        <v>11</v>
-      </c>
-      <c r="BK7" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="BL7" s="8">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="BM7" s="8">
-        <v>26.8</v>
-      </c>
-      <c r="BN7" s="8">
-        <v>20.7</v>
-      </c>
-      <c r="BO7" s="8">
-        <v>33.1</v>
-      </c>
-      <c r="BP7" s="8">
-        <v>18.8</v>
-      </c>
-      <c r="BQ7" s="8">
-        <v>14.1</v>
-      </c>
-      <c r="BR7" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="BS7" s="8">
-        <v>4</v>
-      </c>
-      <c r="BT7" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="BU7" s="8">
-        <v>13.8</v>
-      </c>
-      <c r="BV7" s="8">
-        <v>6</v>
-      </c>
-      <c r="BW7" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="BX7" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="BY7" s="8"/>
-      <c r="BZ7" s="8">
-        <v>2</v>
-      </c>
-      <c r="CA7" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="CB7" s="8">
-        <v>12.7</v>
-      </c>
-      <c r="CC7" s="8">
-        <v>11.2</v>
-      </c>
-      <c r="CD7" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="CE7" s="8"/>
-      <c r="CF7" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="CG7" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="AF7" s="1"/>
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" ht="15">
       <c r="A8" s="8">
         <v>2019</v>
       </c>
-      <c r="B8" s="9">
-        <v>21.6</v>
+      <c r="B8" s="8">
+        <v>22</v>
       </c>
       <c r="C8" s="8">
-        <v>13.7</v>
-      </c>
-      <c r="D8" s="9">
-        <v>29.6</v>
+        <v>15.5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
       </c>
       <c r="E8" s="8">
-        <v>15.5</v>
-      </c>
-      <c r="F8" s="9">
-        <v>9.3000000000000007</v>
+        <v>1.8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.4</v>
       </c>
       <c r="G8" s="8">
-        <v>21.7</v>
-      </c>
-      <c r="H8" s="9">
-        <v>4.2</v>
+        <v>11.4</v>
+      </c>
+      <c r="H8" s="8">
+        <v>26.2</v>
       </c>
       <c r="I8" s="8">
-        <v>3.4</v>
+        <v>24.8</v>
       </c>
       <c r="J8" s="8">
-        <v>5.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="K8" s="8">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="L8" s="8">
-        <v>1.2</v>
+        <v>12.7</v>
       </c>
       <c r="M8" s="8">
-        <v>2.4</v>
+        <v>30.5</v>
       </c>
       <c r="N8" s="8">
-        <v>2.4</v>
+        <v>19.2</v>
       </c>
       <c r="O8" s="8">
-        <v>2.2000000000000002</v>
+        <v>17.3</v>
       </c>
       <c r="P8" s="8">
-        <v>2.7</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>11.4</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="Q8" s="8"/>
       <c r="R8" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S8" s="8">
+        <v>17.7</v>
+      </c>
+      <c r="T8" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="U8" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8">
         <v>6.3</v>
       </c>
-      <c r="S8" s="8">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="T8" s="9">
-        <v>4777</v>
-      </c>
-      <c r="U8" s="9">
-        <v>1459</v>
-      </c>
-      <c r="V8" s="9">
-        <v>3318</v>
-      </c>
-      <c r="W8" s="9">
-        <v>3725</v>
-      </c>
-      <c r="X8" s="9">
-        <v>1058</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>2667</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>672</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>198</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>474</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>332</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>100</v>
-      </c>
       <c r="AE8" s="8">
-        <v>232</v>
-      </c>
-      <c r="AF8" s="9">
-        <v>3040</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>865</v>
-      </c>
-      <c r="AH8" s="9">
-        <v>2175</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>11.2</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>7</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>15.2</v>
-      </c>
-      <c r="AL8" s="8">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AM8" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AN8" s="8">
-        <v>12.2</v>
-      </c>
-      <c r="AO8" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="AP8" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="AQ8" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AR8" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="AS8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="AT8" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AU8" s="8">
-        <v>7.1</v>
-      </c>
-      <c r="AV8" s="8">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AW8" s="8">
-        <v>10</v>
-      </c>
-      <c r="AX8" s="8">
-        <v>26.2</v>
-      </c>
-      <c r="AY8" s="8">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="AZ8" s="8">
-        <v>34.5</v>
-      </c>
-      <c r="BA8" s="8">
-        <v>24.8</v>
-      </c>
-      <c r="BB8" s="8">
-        <v>13.4</v>
-      </c>
-      <c r="BC8" s="8">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="BD8" s="8">
-        <v>3.3</v>
-      </c>
-      <c r="BE8" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="BF8" s="8">
-        <v>5.2</v>
-      </c>
-      <c r="BG8" s="8">
-        <v>9.5</v>
-      </c>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8">
-        <v>13.4</v>
-      </c>
-      <c r="BJ8" s="8">
-        <v>12.7</v>
-      </c>
-      <c r="BK8" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="BL8" s="8">
-        <v>19.5</v>
-      </c>
-      <c r="BM8" s="8">
-        <v>30.5</v>
-      </c>
-      <c r="BN8" s="8">
-        <v>24.5</v>
-      </c>
-      <c r="BO8" s="8">
-        <v>36.6</v>
-      </c>
-      <c r="BP8" s="8">
-        <v>19.2</v>
-      </c>
-      <c r="BQ8" s="8">
-        <v>17.3</v>
-      </c>
-      <c r="BR8" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="BS8" s="8"/>
-      <c r="BT8" s="8">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="BU8" s="8">
-        <v>17.7</v>
-      </c>
-      <c r="BV8" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="BW8" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="BX8" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="BY8" s="8"/>
-      <c r="BZ8" s="8">
-        <v>2</v>
-      </c>
-      <c r="CA8" s="8">
-        <v>5.4</v>
-      </c>
-      <c r="CB8" s="8">
-        <v>14</v>
-      </c>
-      <c r="CC8" s="8">
-        <v>14.4</v>
-      </c>
-      <c r="CD8" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="CE8" s="8"/>
-      <c r="CF8" s="8">
-        <v>6.3</v>
-      </c>
-      <c r="CG8" s="8">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="AF8" s="1"/>
+      <c r="AH8" s="1"/>
+    </row>
+    <row r="9" spans="1:34" ht="15">
       <c r="A9" s="8">
         <v>2020</v>
       </c>
-      <c r="B9" s="9">
-        <v>28.3</v>
+      <c r="B9" s="8">
+        <v>28</v>
       </c>
       <c r="C9" s="8">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D9" s="9">
-        <v>39.5</v>
+        <v>21.4</v>
+      </c>
+      <c r="D9" s="8">
+        <v>5</v>
       </c>
       <c r="E9" s="8">
-        <v>21.4</v>
-      </c>
-      <c r="F9" s="9">
-        <v>12.3</v>
+        <v>2.7</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2.2000000000000002</v>
       </c>
       <c r="G9" s="8">
-        <v>30.4</v>
-      </c>
-      <c r="H9" s="9">
-        <v>4.9000000000000004</v>
+        <v>17.8</v>
+      </c>
+      <c r="H9" s="8">
+        <v>33.1</v>
       </c>
       <c r="I9" s="8">
-        <v>3.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="J9" s="8">
-        <v>6.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K9" s="8">
-        <v>2.7</v>
+        <v>13.7</v>
       </c>
       <c r="L9" s="8">
-        <v>1.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="M9" s="8">
-        <v>3.6</v>
+        <v>42.5</v>
       </c>
       <c r="N9" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="O9" s="8">
+        <v>26.6</v>
+      </c>
+      <c r="P9" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>6</v>
+      </c>
+      <c r="R9" s="8">
+        <v>13.1</v>
+      </c>
+      <c r="S9" s="8">
+        <v>28.1</v>
+      </c>
+      <c r="T9" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="U9" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>24.1</v>
+      </c>
+      <c r="AB9" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O9" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="P9" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>17.8</v>
-      </c>
-      <c r="R9" s="8">
-        <v>9.6</v>
-      </c>
-      <c r="S9" s="8">
-        <v>25.9</v>
-      </c>
-      <c r="T9" s="9">
-        <v>7095</v>
-      </c>
-      <c r="U9" s="9">
-        <v>1990</v>
-      </c>
-      <c r="V9" s="9">
-        <v>5105</v>
-      </c>
-      <c r="W9" s="9">
-        <v>5986</v>
-      </c>
-      <c r="X9" s="9">
-        <v>1584</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>4402</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>812</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>220</v>
-      </c>
-      <c r="AB9" s="8">
-        <v>592</v>
-      </c>
       <c r="AC9" s="8">
-        <v>480</v>
+        <v>4.5</v>
       </c>
       <c r="AD9" s="8">
-        <v>139</v>
+        <v>10.7</v>
       </c>
       <c r="AE9" s="8">
-        <v>341</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>5393</v>
-      </c>
-      <c r="AG9" s="9">
-        <v>1428</v>
-      </c>
-      <c r="AH9" s="9">
-        <v>3965</v>
-      </c>
-      <c r="AI9" s="8">
-        <v>16.7</v>
-      </c>
-      <c r="AJ9" s="8">
-        <v>9.6</v>
-      </c>
-      <c r="AK9" s="8">
-        <v>23.5</v>
-      </c>
-      <c r="AL9" s="8">
-        <v>14.1</v>
-      </c>
-      <c r="AM9" s="8">
-        <v>7.6</v>
-      </c>
-      <c r="AN9" s="8">
-        <v>20.3</v>
-      </c>
-      <c r="AO9" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="AP9" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AQ9" s="8">
-        <v>2.7</v>
-      </c>
-      <c r="AR9" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AS9" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="AT9" s="8">
-        <v>1.6</v>
-      </c>
-      <c r="AU9" s="8">
-        <v>12.7</v>
-      </c>
-      <c r="AV9" s="8">
-        <v>6.9</v>
-      </c>
-      <c r="AW9" s="8">
-        <v>18.2</v>
-      </c>
-      <c r="AX9" s="8">
-        <v>33.1</v>
-      </c>
-      <c r="AY9" s="8">
-        <v>21.5</v>
-      </c>
-      <c r="AZ9" s="8">
-        <v>44.5</v>
-      </c>
-      <c r="BA9" s="8">
-        <v>35.799999999999997</v>
-      </c>
-      <c r="BB9" s="8">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="BC9" s="8">
-        <v>54.8</v>
-      </c>
-      <c r="BD9" s="8">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BE9" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BF9" s="8">
-        <v>7.2</v>
-      </c>
-      <c r="BG9" s="8">
-        <v>13.7</v>
-      </c>
-      <c r="BH9" s="8">
-        <v>6.6</v>
-      </c>
-      <c r="BI9" s="8">
-        <v>20.8</v>
-      </c>
-      <c r="BJ9" s="8">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="BK9" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="BL9" s="8">
-        <v>27.3</v>
-      </c>
-      <c r="BM9" s="8">
-        <v>42.5</v>
-      </c>
-      <c r="BN9" s="8">
-        <v>34</v>
-      </c>
-      <c r="BO9" s="8">
-        <v>51.2</v>
-      </c>
-      <c r="BP9" s="8">
-        <v>25.5</v>
-      </c>
-      <c r="BQ9" s="8">
-        <v>26.6</v>
-      </c>
-      <c r="BR9" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="BS9" s="8">
-        <v>6</v>
-      </c>
-      <c r="BT9" s="8">
-        <v>13.1</v>
-      </c>
-      <c r="BU9" s="8">
-        <v>28.1</v>
-      </c>
-      <c r="BV9" s="8">
-        <v>6.3</v>
-      </c>
-      <c r="BW9" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="BX9" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BY9" s="8"/>
-      <c r="BZ9" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="CA9" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="CB9" s="8">
-        <v>20.9</v>
-      </c>
-      <c r="CC9" s="8">
-        <v>24.1</v>
-      </c>
-      <c r="CD9" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="CE9" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="CF9" s="8">
-        <v>10.7</v>
-      </c>
-      <c r="CG9" s="8">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.3">
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+    </row>
+    <row r="10" spans="1:34" ht="15">
       <c r="A10" s="8">
         <v>2021</v>
       </c>
-      <c r="B10" s="9">
-        <v>32.4</v>
+      <c r="B10" s="8">
+        <v>32</v>
       </c>
       <c r="C10" s="8">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D10" s="9">
-        <v>45.1</v>
+        <v>24.7</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5</v>
       </c>
       <c r="E10" s="8">
-        <v>24.7</v>
-      </c>
-      <c r="F10" s="9">
-        <v>14.5</v>
+        <v>2.9</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
       </c>
       <c r="G10" s="8">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H10" s="9">
+        <v>21.8</v>
+      </c>
+      <c r="H10" s="8">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I10" s="8">
+        <v>44.2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="K10" s="8">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L10" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="N10" s="8">
+        <v>28.4</v>
+      </c>
+      <c r="O10" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="P10" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="R10" s="8">
+        <v>16</v>
+      </c>
+      <c r="S10" s="8">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="T10" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="U10" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I10" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="J10" s="8">
-        <v>6</v>
-      </c>
-      <c r="K10" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="L10" s="8">
-        <v>2</v>
-      </c>
-      <c r="M10" s="8">
-        <v>3.8</v>
-      </c>
-      <c r="N10" s="8">
-        <v>2</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1.8</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="V10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="Z10" s="8">
+        <v>24.8</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>31.4</v>
+      </c>
+      <c r="AB10" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q10" s="8">
-        <v>21.8</v>
-      </c>
-      <c r="R10" s="8">
-        <v>12.2</v>
-      </c>
-      <c r="S10" s="8">
-        <v>31.4</v>
-      </c>
-      <c r="T10" s="9">
-        <v>7426</v>
-      </c>
-      <c r="U10" s="9">
-        <v>2311</v>
-      </c>
-      <c r="V10" s="9">
-        <v>5115</v>
-      </c>
-      <c r="W10" s="9">
-        <v>6312</v>
-      </c>
-      <c r="X10" s="9">
-        <v>1866</v>
-      </c>
-      <c r="Y10" s="9">
-        <v>4446</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>655</v>
-      </c>
-      <c r="AA10" s="8">
-        <v>206</v>
-      </c>
-      <c r="AB10" s="8">
-        <v>449</v>
-      </c>
       <c r="AC10" s="8">
-        <v>414</v>
+        <v>8.9</v>
       </c>
       <c r="AD10" s="8">
-        <v>136</v>
+        <v>14.2</v>
       </c>
       <c r="AE10" s="8">
-        <v>278</v>
-      </c>
-      <c r="AF10" s="9">
-        <v>5936</v>
-      </c>
-      <c r="AG10" s="9">
-        <v>1755</v>
-      </c>
-      <c r="AH10" s="9">
-        <v>4181</v>
-      </c>
-      <c r="AI10" s="8">
-        <v>17.2</v>
-      </c>
-      <c r="AJ10" s="8">
-        <v>11</v>
-      </c>
-      <c r="AK10" s="8">
-        <v>23.3</v>
-      </c>
-      <c r="AL10" s="8">
-        <v>14.6</v>
-      </c>
-      <c r="AM10" s="8">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AN10" s="8">
-        <v>20.2</v>
-      </c>
-      <c r="AO10" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="AP10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="8">
-        <v>2</v>
-      </c>
-      <c r="AR10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="8">
-        <v>0.6</v>
-      </c>
-      <c r="AT10" s="8">
-        <v>1.3</v>
-      </c>
-      <c r="AU10" s="8">
-        <v>13.8</v>
-      </c>
-      <c r="AV10" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AW10" s="8">
-        <v>19</v>
-      </c>
-      <c r="AX10" s="8">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="AY10" s="8">
-        <v>23.8</v>
-      </c>
-      <c r="AZ10" s="8">
-        <v>49.4</v>
-      </c>
-      <c r="BA10" s="8">
-        <v>44.2</v>
-      </c>
-      <c r="BB10" s="8">
-        <v>23.5</v>
-      </c>
-      <c r="BC10" s="8">
-        <v>67.3</v>
-      </c>
-      <c r="BD10" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="BE10" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="BF10" s="8">
-        <v>7.2</v>
-      </c>
-      <c r="BG10" s="8">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="BH10" s="8">
-        <v>9.9</v>
-      </c>
-      <c r="BI10" s="8">
-        <v>30</v>
-      </c>
-      <c r="BJ10" s="8">
-        <v>21.1</v>
-      </c>
-      <c r="BK10" s="8">
-        <v>9.4</v>
-      </c>
-      <c r="BL10" s="8">
-        <v>32.4</v>
-      </c>
-      <c r="BM10" s="8">
-        <v>56.5</v>
-      </c>
-      <c r="BN10" s="8">
-        <v>44.1</v>
-      </c>
-      <c r="BO10" s="8">
-        <v>69.3</v>
-      </c>
-      <c r="BP10" s="8">
-        <v>28.4</v>
-      </c>
-      <c r="BQ10" s="8">
-        <v>33.5</v>
-      </c>
-      <c r="BR10" s="8">
-        <v>2.6</v>
-      </c>
-      <c r="BS10" s="8">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="BT10" s="8">
-        <v>16</v>
-      </c>
-      <c r="BU10" s="8">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="BV10" s="8">
-        <v>6.3</v>
-      </c>
-      <c r="BW10" s="8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BX10" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="BY10" s="8"/>
-      <c r="BZ10" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="CA10" s="8">
-        <v>7.4</v>
-      </c>
-      <c r="CB10" s="8">
-        <v>24.8</v>
-      </c>
-      <c r="CC10" s="8">
-        <v>31.4</v>
-      </c>
-      <c r="CD10" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="CE10" s="8">
-        <v>8.9</v>
-      </c>
-      <c r="CF10" s="8">
-        <v>14.2</v>
-      </c>
-      <c r="CG10" s="8">
         <v>33.6</v>
       </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35266,6 +33546,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3b550926-7a67-4663-8d26-bb68c53a575d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B3106515F2E034586A391A616DD40B8" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0ea6377755dd5d42b03f96205df15344">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3b550926-7a67-4663-8d26-bb68c53a575d" xmlns:ns4="9b80719f-b40b-4f4e-a09f-22a071a6a6a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b25f279f0a7da32a92533e7ceff061f0" ns3:_="" ns4:_="">
     <xsd:import namespace="3b550926-7a67-4663-8d26-bb68c53a575d"/>
@@ -35492,63 +33789,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3b550926-7a67-4663-8d26-bb68c53a575d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A038311-342D-4BD5-8167-C18BBE3B0E29}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3b550926-7a67-4663-8d26-bb68c53a575d"/>
-    <ds:schemaRef ds:uri="9b80719f-b40b-4f4e-a09f-22a071a6a6a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DEF33A8-66B3-48E8-B0FF-3811474516A6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92715349-17F3-4B91-9C0F-FF6973FD0EB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3b550926-7a67-4663-8d26-bb68c53a575d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9b80719f-b40b-4f4e-a09f-22a071a6a6a4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92715349-17F3-4B91-9C0F-FF6973FD0EB1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DEF33A8-66B3-48E8-B0FF-3811474516A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A038311-342D-4BD5-8167-C18BBE3B0E29}"/>
 </file>